--- a/capiq_data/in_process_data/IQ122917.xlsx
+++ b/capiq_data/in_process_data/IQ122917.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CAB324-F736-4DFC-9DF2-A6221C3FE9C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972335E2-885F-4CF2-8FD0-06FA842D3158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"dd10127e-3ad2-44ab-b68a-97da17bb9fa1"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"0d11ceb2-ec38-4aea-8846-6f425906b094"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$74</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$74</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$74</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$74</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$74</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$74</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$74</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$74</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$74</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$74</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$74</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$74</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$74</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$74</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$74</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$74</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$74</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$74</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$74</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$74</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$74</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$74</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$74</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$74</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$74</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$74</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,102 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
+  </si>
+  <si>
+    <t>FQ32011</t>
   </si>
   <si>
     <t>FQ42011</t>
@@ -639,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +829,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40574</v>
+        <v>37652</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>10.913</v>
+        <v>-2.5449999999999999</v>
       </c>
       <c r="D2">
-        <v>456.86700000000002</v>
+        <v>15.566000000000001</v>
       </c>
       <c r="E2">
-        <v>426.94299999999998</v>
+        <v>9.5809999999999995</v>
       </c>
       <c r="F2">
-        <v>364.55599999999998</v>
+        <v>12.308999999999999</v>
       </c>
       <c r="G2">
-        <v>1074.924</v>
+        <v>29.966999999999999</v>
       </c>
       <c r="H2">
-        <v>3091.165</v>
+        <v>39.673000000000002</v>
       </c>
       <c r="I2">
-        <v>18.106000000000002</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="J2">
-        <v>472.53800000000001</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,75 +868,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1276.4659999999999</v>
+        <v>28.795000000000002</v>
       </c>
       <c r="O2">
-        <v>1814.674</v>
+        <v>34.000999999999998</v>
       </c>
       <c r="P2">
-        <v>498.02499999999998</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="Q2">
-        <v>-206.011</v>
+        <v>3.9750000000000001</v>
       </c>
       <c r="R2">
-        <v>40574</v>
+        <v>37652</v>
       </c>
       <c r="S2">
-        <v>5306</v>
+        <v>412</v>
       </c>
       <c r="T2">
-        <v>1276.491</v>
+        <v>5.6719999999999997</v>
       </c>
       <c r="U2">
-        <v>424.29199999999997</v>
+        <v>8.7089999999999996</v>
       </c>
       <c r="V2">
-        <v>165.762</v>
+        <v>5.5869999999999997</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>10.71</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="Y2">
-        <v>25.486999999999998</v>
+        <v>7.8E-2</v>
       </c>
       <c r="Z2">
-        <v>165.74100000000001</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="AA2">
-        <v>10.913</v>
+        <v>-2.5449999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40663</v>
+        <v>37741</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>0.53</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D3">
-        <v>504.36399999999998</v>
+        <v>18.913</v>
       </c>
       <c r="E3">
-        <v>270.81599999999997</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>401.298</v>
+        <v>15.558</v>
       </c>
       <c r="G3">
-        <v>1188.1289999999999</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3128.0680000000002</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.969000000000001</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -852,78 +948,78 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-3.5619999999999998</v>
+        <v>-0.151</v>
       </c>
       <c r="N3">
-        <v>1685.212</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1872.4259999999999</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>537.71</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="Q3">
-        <v>240.32</v>
+        <v>-3.7679999999999998</v>
       </c>
       <c r="R3">
-        <v>40663</v>
+        <v>37741</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1255.6420000000001</v>
+        <v>5.6719999999999997</v>
       </c>
       <c r="U3">
-        <v>664.61199999999997</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>139.518</v>
+        <v>4.7610000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>27.957999999999998</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="Y3">
-        <v>49.061999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>121.02500000000001</v>
+        <v>-8.0939999999999994</v>
       </c>
       <c r="AA3">
-        <v>0.53</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37833</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-4.2679999999999998</v>
+        <v>0.122</v>
       </c>
       <c r="D4">
-        <v>546.00199999999995</v>
+        <v>21.623000000000001</v>
       </c>
       <c r="E4">
-        <v>342.39699999999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>425.09199999999998</v>
+        <v>17.795000000000002</v>
       </c>
       <c r="G4">
-        <v>1114.8219999999999</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3421.328</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>22.321000000000002</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -935,78 +1031,78 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-10.548999999999999</v>
+        <v>-0.159</v>
       </c>
       <c r="N4">
-        <v>1814.057</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2003.2049999999999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>538.21299999999997</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-214.81800000000001</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37833</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1418.123</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>449.79399999999998</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>82.933000000000007</v>
+        <v>3.9860000000000002</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>20.419</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="Y4">
-        <v>46.088000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>13.88</v>
+        <v>-2.2559999999999998</v>
       </c>
       <c r="AA4">
-        <v>-4.2679999999999998</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40847</v>
+        <v>37925</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-3.7559999999999998</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="D5">
-        <v>584.26</v>
+        <v>25.434000000000001</v>
       </c>
       <c r="E5">
-        <v>312.33100000000002</v>
+        <v>16.606999999999999</v>
       </c>
       <c r="F5">
-        <v>455.69499999999999</v>
+        <v>20.765999999999998</v>
       </c>
       <c r="G5">
-        <v>1148.24</v>
+        <v>58.776000000000003</v>
       </c>
       <c r="H5">
-        <v>3511.2779999999998</v>
+        <v>67.872</v>
       </c>
       <c r="I5">
-        <v>28.265000000000001</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1018,78 +1114,78 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-7.6849999999999996</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="N5">
-        <v>1832.5889999999999</v>
+        <v>52.085999999999999</v>
       </c>
       <c r="O5">
-        <v>2012.8889999999999</v>
+        <v>52.89</v>
       </c>
       <c r="P5">
-        <v>555.1</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="Q5">
-        <v>53.192999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="R5">
-        <v>40847</v>
+        <v>37925</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="T5">
-        <v>1498.3889999999999</v>
+        <v>14.981999999999999</v>
       </c>
       <c r="U5">
-        <v>502.98700000000002</v>
+        <v>6.5359999999999996</v>
       </c>
       <c r="V5">
-        <v>128.709</v>
+        <v>6.8879999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>15.000999999999999</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="Y5">
-        <v>52.558999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>17.658999999999999</v>
+        <v>-6.3</v>
       </c>
       <c r="AA5">
-        <v>-3.7559999999999998</v>
+        <v>3.7890000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40939</v>
+        <v>38017</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-4.0780000000000003</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="D6">
-        <v>631.91300000000001</v>
+        <v>30.053000000000001</v>
       </c>
       <c r="E6">
-        <v>683.745</v>
+        <v>26.536000000000001</v>
       </c>
       <c r="F6">
-        <v>495.56799999999998</v>
+        <v>24.631</v>
       </c>
       <c r="G6">
-        <v>1672.222</v>
+        <v>74.146000000000001</v>
       </c>
       <c r="H6">
-        <v>4164.1540000000005</v>
+        <v>87.510999999999996</v>
       </c>
       <c r="I6">
-        <v>33.258000000000003</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,78 +1200,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2300.0309999999999</v>
+        <v>70.006</v>
       </c>
       <c r="O6">
-        <v>2576.7939999999999</v>
+        <v>71.835999999999999</v>
       </c>
       <c r="P6">
-        <v>568.24</v>
+        <v>7.8E-2</v>
       </c>
       <c r="Q6">
-        <v>104.297</v>
+        <v>3.927</v>
       </c>
       <c r="R6">
-        <v>40939</v>
+        <v>38017</v>
       </c>
       <c r="S6">
-        <v>7785</v>
+        <v>518</v>
       </c>
       <c r="T6">
-        <v>1587.36</v>
+        <v>15.675000000000001</v>
       </c>
       <c r="U6">
-        <v>607.28399999999999</v>
+        <v>10.462999999999999</v>
       </c>
       <c r="V6">
-        <v>240.34700000000001</v>
+        <v>6.1459999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>12.472</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="Y6">
-        <v>72.090999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-48.255000000000003</v>
+        <v>-1.399</v>
       </c>
       <c r="AA6">
-        <v>-4.0780000000000003</v>
+        <v>-0.76500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41029</v>
+        <v>38107</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-19.475000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="D7">
-        <v>695.46699999999998</v>
+        <v>34.838999999999999</v>
       </c>
       <c r="E7">
-        <v>371.39499999999998</v>
+        <v>24.49</v>
       </c>
       <c r="F7">
-        <v>543.91600000000005</v>
+        <v>28.475999999999999</v>
       </c>
       <c r="G7">
-        <v>1323.0329999999999</v>
+        <v>80.691999999999993</v>
       </c>
       <c r="H7">
-        <v>4156.0919999999996</v>
+        <v>92.977000000000004</v>
       </c>
       <c r="I7">
-        <v>19.751999999999999</v>
+        <v>1.782</v>
       </c>
       <c r="J7">
-        <v>502.32600000000002</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,78 +1280,78 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-7.5739999999999998</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="N7">
-        <v>1676.8520000000001</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="O7">
-        <v>2346.3229999999999</v>
+        <v>75.103999999999999</v>
       </c>
       <c r="P7">
-        <v>562.56200000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Q7">
-        <v>-166.499</v>
+        <v>-4.9029999999999996</v>
       </c>
       <c r="R7">
-        <v>41029</v>
+        <v>38107</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="T7">
-        <v>1809.769</v>
+        <v>17.873000000000001</v>
       </c>
       <c r="U7">
-        <v>440.78500000000003</v>
+        <v>5.56</v>
       </c>
       <c r="V7">
-        <v>213.21199999999999</v>
+        <v>6.6589999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>97.036000000000001</v>
+        <v>1.548</v>
       </c>
       <c r="Y7">
-        <v>47.787999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-377.24700000000001</v>
+        <v>-12.824</v>
       </c>
       <c r="AA7">
-        <v>-19.475000000000001</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41121</v>
+        <v>38199</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-9.8290000000000006</v>
+        <v>1.17</v>
       </c>
       <c r="D8">
-        <v>731.649</v>
+        <v>40.581000000000003</v>
       </c>
       <c r="E8">
-        <v>446.91699999999997</v>
+        <v>29.943999999999999</v>
       </c>
       <c r="F8">
-        <v>569.23099999999999</v>
+        <v>32.399000000000001</v>
       </c>
       <c r="G8">
-        <v>1853.125</v>
+        <v>156.96799999999999</v>
       </c>
       <c r="H8">
-        <v>4453.57</v>
+        <v>226.51300000000001</v>
       </c>
       <c r="I8">
-        <v>69.338999999999999</v>
+        <v>1.9470000000000001</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1267,78 +1363,78 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-7.4790000000000001</v>
+        <v>-0.157</v>
       </c>
       <c r="N8">
-        <v>2329.1669999999999</v>
+        <v>89.68</v>
       </c>
       <c r="O8">
-        <v>2561.2559999999999</v>
+        <v>92.373000000000005</v>
       </c>
       <c r="P8">
-        <v>570.17100000000005</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="Q8">
-        <v>559.94500000000005</v>
+        <v>55.533000000000001</v>
       </c>
       <c r="R8">
-        <v>41121</v>
+        <v>38199</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1892.3140000000001</v>
+        <v>134.13999999999999</v>
       </c>
       <c r="U8">
-        <v>1000.73</v>
+        <v>61.093000000000004</v>
       </c>
       <c r="V8">
-        <v>136.197</v>
+        <v>14.935</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>41.046999999999997</v>
+        <v>113.736</v>
       </c>
       <c r="Y8">
-        <v>49.79</v>
+        <v>1.004</v>
       </c>
       <c r="Z8">
-        <v>411.66800000000001</v>
+        <v>-73.361000000000004</v>
       </c>
       <c r="AA8">
-        <v>-9.8290000000000006</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41213</v>
+        <v>38291</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-220.297</v>
+        <v>2.153</v>
       </c>
       <c r="D9">
-        <v>788.39800000000002</v>
+        <v>46.360999999999997</v>
       </c>
       <c r="E9">
-        <v>418.59</v>
+        <v>37.534999999999997</v>
       </c>
       <c r="F9">
-        <v>602.15</v>
+        <v>37.456000000000003</v>
       </c>
       <c r="G9">
-        <v>1257.2850000000001</v>
+        <v>162.91999999999999</v>
       </c>
       <c r="H9">
-        <v>4642.29</v>
+        <v>246.703</v>
       </c>
       <c r="I9">
-        <v>57.94</v>
+        <v>3.8439999999999999</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1350,78 +1446,78 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-7.6639999999999997</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="N9">
-        <v>2323.2159999999999</v>
+        <v>105.81399999999999</v>
       </c>
       <c r="O9">
-        <v>2558.6750000000002</v>
+        <v>108.318</v>
       </c>
       <c r="P9">
-        <v>578.67499999999995</v>
+        <v>1.423</v>
       </c>
       <c r="Q9">
-        <v>-479.01</v>
+        <v>-38.337000000000003</v>
       </c>
       <c r="R9">
-        <v>41213</v>
+        <v>38291</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2083.6149999999998</v>
+        <v>138.38499999999999</v>
       </c>
       <c r="U9">
-        <v>521.72</v>
+        <v>22.756</v>
       </c>
       <c r="V9">
-        <v>105.91500000000001</v>
+        <v>13.15</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>71.978999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="Y9">
-        <v>55.921999999999997</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="Z9">
-        <v>-91.084999999999994</v>
+        <v>-50.723999999999997</v>
       </c>
       <c r="AA9">
-        <v>-220.297</v>
+        <v>2.153</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41305</v>
+        <v>38383</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-20.844000000000001</v>
+        <v>3.5859999999999999</v>
       </c>
       <c r="D10">
-        <v>834.68100000000004</v>
+        <v>54.594000000000001</v>
       </c>
       <c r="E10">
-        <v>872.63400000000001</v>
+        <v>48.874000000000002</v>
       </c>
       <c r="F10">
-        <v>651.31899999999996</v>
+        <v>44.59</v>
       </c>
       <c r="G10">
-        <v>2015.88</v>
+        <v>178.715</v>
       </c>
       <c r="H10">
-        <v>5528.9560000000001</v>
+        <v>280.49900000000002</v>
       </c>
       <c r="I10">
-        <v>14.535</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,78 +1532,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2917.6239999999998</v>
+        <v>131.67099999999999</v>
       </c>
       <c r="O10">
-        <v>3211.3229999999999</v>
+        <v>133.988</v>
       </c>
       <c r="P10">
-        <v>521.27800000000002</v>
+        <v>1.284</v>
       </c>
       <c r="Q10">
-        <v>225.52500000000001</v>
+        <v>12.975</v>
       </c>
       <c r="R10">
-        <v>41305</v>
+        <v>38383</v>
       </c>
       <c r="S10">
-        <v>9800</v>
+        <v>767</v>
       </c>
       <c r="T10">
-        <v>2317.6329999999998</v>
+        <v>146.511</v>
       </c>
       <c r="U10">
-        <v>747.245</v>
+        <v>35.731000000000002</v>
       </c>
       <c r="V10">
-        <v>281.57299999999998</v>
+        <v>21.128</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>124.483</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="Z10">
-        <v>-122.80200000000001</v>
+        <v>-8.7029999999999994</v>
       </c>
       <c r="AA10">
-        <v>-20.844000000000001</v>
+        <v>3.5859999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41394</v>
+        <v>38472</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-67.721000000000004</v>
+        <v>4.38</v>
       </c>
       <c r="D11">
-        <v>892.63300000000004</v>
+        <v>64.177000000000007</v>
       </c>
       <c r="E11">
-        <v>502.60899999999998</v>
+        <v>42.383000000000003</v>
       </c>
       <c r="F11">
-        <v>683.63900000000001</v>
+        <v>52.212000000000003</v>
       </c>
       <c r="G11">
-        <v>2876.0390000000002</v>
+        <v>180.60400000000001</v>
       </c>
       <c r="H11">
-        <v>6513.7089999999998</v>
+        <v>294.63400000000001</v>
       </c>
       <c r="I11">
-        <v>31.521999999999998</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="J11">
-        <v>1029.4949999999999</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1612,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-8.4990000000000006</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="N11">
-        <v>2729.6869999999999</v>
+        <v>138.21700000000001</v>
       </c>
       <c r="O11">
-        <v>4050.913</v>
+        <v>140.03200000000001</v>
       </c>
       <c r="P11">
-        <v>1618.1220000000001</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="Q11">
-        <v>1180.7449999999999</v>
+        <v>4.8730000000000002</v>
       </c>
       <c r="R11">
-        <v>41394</v>
+        <v>38472</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2462.7959999999998</v>
+        <v>154.602</v>
       </c>
       <c r="U11">
-        <v>1927.99</v>
+        <v>40.603999999999999</v>
       </c>
       <c r="V11">
-        <v>283.18900000000002</v>
+        <v>17.91</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1123.6410000000001</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="Y11">
-        <v>60.817</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="Z11">
-        <v>-143.10499999999999</v>
+        <v>-6.5149999999999997</v>
       </c>
       <c r="AA11">
-        <v>-67.721000000000004</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41486</v>
+        <v>38564</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>76.602999999999994</v>
+        <v>5.04</v>
       </c>
       <c r="D12">
-        <v>957.09400000000005</v>
+        <v>71.942999999999998</v>
       </c>
       <c r="E12">
-        <v>750.04100000000005</v>
+        <v>50.183999999999997</v>
       </c>
       <c r="F12">
-        <v>739.37699999999995</v>
+        <v>55.706000000000003</v>
       </c>
       <c r="G12">
-        <v>1698.165</v>
+        <v>199.821</v>
       </c>
       <c r="H12">
-        <v>7969.8959999999997</v>
+        <v>323.67500000000001</v>
       </c>
       <c r="I12">
-        <v>66.858999999999995</v>
+        <v>3.9409999999999998</v>
       </c>
       <c r="J12">
-        <v>1305.271</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1695,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-12.108000000000001</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="N12">
-        <v>3063.3150000000001</v>
+        <v>154.80699999999999</v>
       </c>
       <c r="O12">
-        <v>5151.2470000000003</v>
+        <v>156.46700000000001</v>
       </c>
       <c r="P12">
-        <v>2386.7179999999998</v>
+        <v>1.095</v>
       </c>
       <c r="Q12">
-        <v>-1348.1089999999999</v>
+        <v>-15.464</v>
       </c>
       <c r="R12">
-        <v>41486</v>
+        <v>38564</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2818.6489999999999</v>
+        <v>167.208</v>
       </c>
       <c r="U12">
-        <v>579.88099999999997</v>
+        <v>25.14</v>
       </c>
       <c r="V12">
-        <v>183.18299999999999</v>
+        <v>14.071999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>325.30900000000003</v>
+        <v>5.0949999999999998</v>
       </c>
       <c r="Y12">
-        <v>487.87900000000002</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="Z12">
-        <v>839.8</v>
+        <v>-31.518000000000001</v>
       </c>
       <c r="AA12">
-        <v>76.602999999999994</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41578</v>
+        <v>38656</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-124.434</v>
+        <v>13.097</v>
       </c>
       <c r="D13">
-        <v>1076.0340000000001</v>
+        <v>82.673000000000002</v>
       </c>
       <c r="E13">
-        <v>714.57899999999995</v>
+        <v>53.406999999999996</v>
       </c>
       <c r="F13">
-        <v>807.84699999999998</v>
+        <v>63.088999999999999</v>
       </c>
       <c r="G13">
-        <v>1800.886</v>
+        <v>244.864</v>
       </c>
       <c r="H13">
-        <v>8097.634</v>
+        <v>359.44</v>
       </c>
       <c r="I13">
-        <v>45.161999999999999</v>
+        <v>5.8680000000000003</v>
       </c>
       <c r="J13">
-        <v>1303.5830000000001</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,81 +1778,81 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-19.940000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="N13">
-        <v>3096.6889999999999</v>
+        <v>173.86</v>
       </c>
       <c r="O13">
-        <v>5185.2780000000002</v>
+        <v>175.31399999999999</v>
       </c>
       <c r="P13">
-        <v>2393.328</v>
+        <v>0.95</v>
       </c>
       <c r="Q13">
-        <v>71.869</v>
+        <v>62.215000000000003</v>
       </c>
       <c r="R13">
-        <v>41578</v>
+        <v>38656</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2912.3560000000002</v>
+        <v>184.126</v>
       </c>
       <c r="U13">
-        <v>651.75</v>
+        <v>87.355000000000004</v>
       </c>
       <c r="V13">
-        <v>137.85900000000001</v>
+        <v>24.571000000000002</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>92.347999999999999</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="Y13">
-        <v>518.62</v>
+        <v>0.34</v>
       </c>
       <c r="Z13">
-        <v>-90.82</v>
+        <v>37.75</v>
       </c>
       <c r="AA13">
-        <v>-124.434</v>
+        <v>13.097</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41670</v>
+        <v>38748</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-116.623</v>
+        <v>5.9569999999999999</v>
       </c>
       <c r="D14">
-        <v>1145.242</v>
+        <v>91.063999999999993</v>
       </c>
       <c r="E14">
-        <v>1438.2049999999999</v>
+        <v>76.128</v>
       </c>
       <c r="F14">
-        <v>871.71199999999999</v>
+        <v>69.724000000000004</v>
       </c>
       <c r="G14">
-        <v>2680.252</v>
+        <v>303.21699999999998</v>
       </c>
       <c r="H14">
-        <v>9152.93</v>
+        <v>434.74900000000002</v>
       </c>
       <c r="I14">
-        <v>64.988</v>
+        <v>10.212</v>
       </c>
       <c r="J14">
-        <v>1301.93</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1864,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3980.1880000000001</v>
+        <v>234.625</v>
       </c>
       <c r="O14">
-        <v>6114.42</v>
+        <v>235.964</v>
       </c>
       <c r="P14">
-        <v>2508.5630000000001</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="Q14">
-        <v>129.88499999999999</v>
+        <v>12.487</v>
       </c>
       <c r="R14">
-        <v>41670</v>
+        <v>38748</v>
       </c>
       <c r="S14">
-        <v>13300</v>
+        <v>1304</v>
       </c>
       <c r="T14">
-        <v>3038.51</v>
+        <v>198.785</v>
       </c>
       <c r="U14">
-        <v>781.63499999999999</v>
+        <v>99.841999999999999</v>
       </c>
       <c r="V14">
-        <v>271.238</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>56.936</v>
+        <v>5.9329999999999998</v>
       </c>
       <c r="Y14">
-        <v>634.47400000000005</v>
+        <v>0.184</v>
       </c>
       <c r="Z14">
-        <v>-121.018</v>
+        <v>-27.279</v>
       </c>
       <c r="AA14">
-        <v>-116.623</v>
+        <v>5.9569999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41759</v>
+        <v>38837</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-96.911000000000001</v>
+        <v>-0.22900000000000001</v>
       </c>
       <c r="D15">
-        <v>1226.7719999999999</v>
+        <v>104.68600000000001</v>
       </c>
       <c r="E15">
-        <v>738.51499999999999</v>
+        <v>72.337000000000003</v>
       </c>
       <c r="F15">
-        <v>934.46699999999998</v>
+        <v>80.126000000000005</v>
       </c>
       <c r="G15">
-        <v>2039.3810000000001</v>
+        <v>328.61599999999999</v>
       </c>
       <c r="H15">
-        <v>8641.3439999999991</v>
+        <v>457.45600000000002</v>
       </c>
       <c r="I15">
-        <v>36.722999999999999</v>
+        <v>7.72</v>
       </c>
       <c r="J15">
-        <v>1300.3150000000001</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1944,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-301.98599999999999</v>
+        <v>-0.151</v>
       </c>
       <c r="N15">
-        <v>3359.9540000000002</v>
+        <v>238.959</v>
       </c>
       <c r="O15">
-        <v>5509.43</v>
+        <v>242.68100000000001</v>
       </c>
       <c r="P15">
-        <v>2171.8110000000001</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="Q15">
-        <v>46.256</v>
+        <v>28.731000000000002</v>
       </c>
       <c r="R15">
-        <v>41759</v>
+        <v>38837</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3131.9140000000002</v>
+        <v>214.77500000000001</v>
       </c>
       <c r="U15">
-        <v>827.89099999999996</v>
+        <v>128.57300000000001</v>
       </c>
       <c r="V15">
-        <v>473.08699999999999</v>
+        <v>12.416</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-219.15</v>
+        <v>7.952</v>
       </c>
       <c r="Y15">
-        <v>503.84500000000003</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Z15">
-        <v>-180.27199999999999</v>
+        <v>27.207999999999998</v>
       </c>
       <c r="AA15">
-        <v>-96.911000000000001</v>
+        <v>-0.22900000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41851</v>
+        <v>38929</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-61.088000000000001</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="D16">
-        <v>1318.5509999999999</v>
+        <v>118.137</v>
       </c>
       <c r="E16">
-        <v>873.86300000000006</v>
+        <v>75.703999999999994</v>
       </c>
       <c r="F16">
-        <v>1010.72</v>
+        <v>89.006</v>
       </c>
       <c r="G16">
-        <v>2304.6869999999999</v>
+        <v>369.66399999999999</v>
       </c>
       <c r="H16">
-        <v>9009.8279999999995</v>
+        <v>501.351</v>
       </c>
       <c r="I16">
-        <v>83.603999999999999</v>
+        <v>6.0259999999999998</v>
       </c>
       <c r="J16">
-        <v>1298.7370000000001</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +2027,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-61.533000000000001</v>
+        <v>-0.153</v>
       </c>
       <c r="N16">
-        <v>3502.7379999999998</v>
+        <v>266.71600000000001</v>
       </c>
       <c r="O16">
-        <v>5709.26</v>
+        <v>267.87400000000002</v>
       </c>
       <c r="P16">
-        <v>2211.6869999999999</v>
+        <v>0.495</v>
       </c>
       <c r="Q16">
-        <v>-53.165999999999997</v>
+        <v>21.419</v>
       </c>
       <c r="R16">
-        <v>41851</v>
+        <v>38929</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3300.5680000000002</v>
+        <v>233.477</v>
       </c>
       <c r="U16">
-        <v>774.72500000000002</v>
+        <v>149.99199999999999</v>
       </c>
       <c r="V16">
-        <v>245.893</v>
+        <v>30.021999999999998</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-6.9189999999999996</v>
+        <v>8.5530000000000008</v>
       </c>
       <c r="Y16">
-        <v>598.64200000000005</v>
+        <v>0.02</v>
       </c>
       <c r="Z16">
-        <v>-215.9</v>
+        <v>-14.151</v>
       </c>
       <c r="AA16">
-        <v>-61.088000000000001</v>
+        <v>-0.14499999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41943</v>
+        <v>39021</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-38.923999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D17">
-        <v>1383.655</v>
+        <v>130.053</v>
       </c>
       <c r="E17">
-        <v>822.66300000000001</v>
+        <v>82.808000000000007</v>
       </c>
       <c r="F17">
-        <v>1050.444</v>
+        <v>98.692999999999998</v>
       </c>
       <c r="G17">
-        <v>2439.1550000000002</v>
+        <v>355.93400000000003</v>
       </c>
       <c r="H17">
-        <v>9412.6630000000005</v>
+        <v>555.68899999999996</v>
       </c>
       <c r="I17">
-        <v>88.793999999999997</v>
+        <v>5.66</v>
       </c>
       <c r="J17">
-        <v>1364.683</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,81 +2110,81 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-369.99</v>
+        <v>-0.155</v>
       </c>
       <c r="N17">
-        <v>3308.3519999999999</v>
+        <v>294.28699999999998</v>
       </c>
       <c r="O17">
-        <v>5622.049</v>
+        <v>295.38900000000001</v>
       </c>
       <c r="P17">
-        <v>2220.0940000000001</v>
+        <v>0.34</v>
       </c>
       <c r="Q17">
-        <v>71.599999999999994</v>
+        <v>-79.668000000000006</v>
       </c>
       <c r="R17">
-        <v>41943</v>
+        <v>39021</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3790.614</v>
+        <v>260.3</v>
       </c>
       <c r="U17">
-        <v>846.32500000000005</v>
+        <v>70.323999999999998</v>
       </c>
       <c r="V17">
-        <v>122.511</v>
+        <v>30.626999999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>19.893000000000001</v>
+        <v>14.872</v>
       </c>
       <c r="Y17">
-        <v>675.65599999999995</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z17">
-        <v>-98.215999999999994</v>
+        <v>-116.209</v>
       </c>
       <c r="AA17">
-        <v>-38.923999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42035</v>
+        <v>39113</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-65.765000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D18">
-        <v>1444.6079999999999</v>
+        <v>144.22200000000001</v>
       </c>
       <c r="E18">
-        <v>1922.126</v>
+        <v>128.69300000000001</v>
       </c>
       <c r="F18">
-        <v>1088.6849999999999</v>
+        <v>110.383</v>
       </c>
       <c r="G18">
-        <v>3514.5439999999999</v>
+        <v>419.096</v>
       </c>
       <c r="H18">
-        <v>10665.127</v>
+        <v>664.83199999999999</v>
       </c>
       <c r="I18">
-        <v>95.537000000000006</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="J18">
-        <v>1370.692</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2196,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4390.1030000000001</v>
+        <v>373.19099999999997</v>
       </c>
       <c r="O18">
-        <v>6689.9440000000004</v>
+        <v>378.40699999999998</v>
       </c>
       <c r="P18">
-        <v>1495.981</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>61.792000000000002</v>
+        <v>16.283999999999999</v>
       </c>
       <c r="R18">
-        <v>42035</v>
+        <v>39113</v>
       </c>
       <c r="S18">
-        <v>16000</v>
+        <v>2070</v>
       </c>
       <c r="T18">
-        <v>3975.183</v>
+        <v>286.42500000000001</v>
       </c>
       <c r="U18">
-        <v>908.11699999999996</v>
+        <v>86.608000000000004</v>
       </c>
       <c r="V18">
-        <v>332.22300000000001</v>
+        <v>38.158999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-104.30500000000001</v>
+        <v>13.65</v>
       </c>
       <c r="Y18">
-        <v>125.289</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>-48.393999999999998</v>
+        <v>-25.042000000000002</v>
       </c>
       <c r="AA18">
-        <v>-65.765000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42124</v>
+        <v>39202</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>4.0919999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="D19">
-        <v>1511.1669999999999</v>
+        <v>162.41200000000001</v>
       </c>
       <c r="E19">
-        <v>936.87300000000005</v>
+        <v>105.01300000000001</v>
       </c>
       <c r="F19">
-        <v>1129.365</v>
+        <v>123.245</v>
       </c>
       <c r="G19">
-        <v>2604.8249999999998</v>
+        <v>400.13299999999998</v>
       </c>
       <c r="H19">
-        <v>10365.682000000001</v>
+        <v>697.96900000000005</v>
       </c>
       <c r="I19">
-        <v>60.226999999999997</v>
+        <v>11.606</v>
       </c>
       <c r="J19">
-        <v>1275.5029999999999</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2276,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-316.82499999999999</v>
+        <v>-0.157</v>
       </c>
       <c r="N19">
-        <v>3960.8760000000002</v>
+        <v>377.31700000000001</v>
       </c>
       <c r="O19">
-        <v>6130.4790000000003</v>
+        <v>383.31</v>
       </c>
       <c r="P19">
-        <v>1973.829</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q19">
-        <v>33.838999999999999</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="R19">
-        <v>42124</v>
+        <v>39202</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4235.2030000000004</v>
+        <v>314.65899999999999</v>
       </c>
       <c r="U19">
-        <v>941.95600000000002</v>
+        <v>87.492000000000004</v>
       </c>
       <c r="V19">
-        <v>735.08100000000002</v>
+        <v>36.83</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-161.81</v>
+        <v>14.429</v>
       </c>
       <c r="Y19">
-        <v>698.32600000000002</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-145.05699999999999</v>
+        <v>-34.212000000000003</v>
       </c>
       <c r="AA19">
-        <v>4.0919999999999996</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>39294</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-0.85199999999999998</v>
+        <v>3.7349999999999999</v>
       </c>
       <c r="D20">
-        <v>1634.684</v>
+        <v>176.57900000000001</v>
       </c>
       <c r="E20">
-        <v>1073.971</v>
+        <v>114.04600000000001</v>
       </c>
       <c r="F20">
-        <v>1229.3</v>
+        <v>135.167</v>
       </c>
       <c r="G20">
-        <v>2916.7869999999998</v>
+        <v>477.17099999999999</v>
       </c>
       <c r="H20">
-        <v>10793.977000000001</v>
+        <v>775.779</v>
       </c>
       <c r="I20">
-        <v>99.286000000000001</v>
+        <v>7.2149999999999999</v>
       </c>
       <c r="J20">
-        <v>1281.6120000000001</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,81 +2359,81 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-41.073999999999998</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="N20">
-        <v>4112.9939999999997</v>
+        <v>412.11399999999998</v>
       </c>
       <c r="O20">
-        <v>6258.174</v>
+        <v>418.49200000000002</v>
       </c>
       <c r="P20">
-        <v>1962.3150000000001</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q20">
-        <v>147.39500000000001</v>
+        <v>35.457000000000001</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>39294</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4535.8029999999999</v>
+        <v>357.28699999999998</v>
       </c>
       <c r="U20">
-        <v>1089.3510000000001</v>
+        <v>122.949</v>
       </c>
       <c r="V20">
-        <v>304.27800000000002</v>
+        <v>34.654000000000003</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>73.724999999999994</v>
+        <v>24.318000000000001</v>
       </c>
       <c r="Y20">
-        <v>645.86500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-153.875</v>
+        <v>-13.734999999999999</v>
       </c>
       <c r="AA20">
-        <v>-0.85199999999999998</v>
+        <v>3.7349999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42308</v>
+        <v>39386</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-25.157</v>
+        <v>6.5119999999999996</v>
       </c>
       <c r="D21">
-        <v>1711.9670000000001</v>
+        <v>192.803</v>
       </c>
       <c r="E21">
-        <v>1064.298</v>
+        <v>121.961</v>
       </c>
       <c r="F21">
-        <v>1288.2840000000001</v>
+        <v>148.52199999999999</v>
       </c>
       <c r="G21">
-        <v>2938.7730000000001</v>
+        <v>554.95000000000005</v>
       </c>
       <c r="H21">
-        <v>10911.966</v>
+        <v>865.10900000000004</v>
       </c>
       <c r="I21">
-        <v>88.754999999999995</v>
+        <v>12.618</v>
       </c>
       <c r="J21">
-        <v>1287.761</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,81 +2442,81 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-10.945</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="N21">
-        <v>3976.9780000000001</v>
+        <v>449.94099999999997</v>
       </c>
       <c r="O21">
-        <v>6162.0119999999997</v>
+        <v>456.64600000000002</v>
       </c>
       <c r="P21">
-        <v>2001.9010000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q21">
-        <v>133.96700000000001</v>
+        <v>37.811999999999998</v>
       </c>
       <c r="R21">
-        <v>42308</v>
+        <v>39386</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4749.9539999999997</v>
+        <v>408.46300000000002</v>
       </c>
       <c r="U21">
-        <v>1223.318</v>
+        <v>160.761</v>
       </c>
       <c r="V21">
-        <v>162.51400000000001</v>
+        <v>51.997999999999998</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>87.070999999999998</v>
+        <v>29.878</v>
       </c>
       <c r="Y21">
-        <v>685.77300000000002</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-132.012</v>
+        <v>-33.481000000000002</v>
       </c>
       <c r="AA21">
-        <v>-25.157</v>
+        <v>6.5119999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>39478</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-25.509</v>
+        <v>7.3789999999999996</v>
       </c>
       <c r="D22">
-        <v>1809.3979999999999</v>
+        <v>216.90600000000001</v>
       </c>
       <c r="E22">
-        <v>2496.165</v>
+        <v>220.06100000000001</v>
       </c>
       <c r="F22">
-        <v>1365.7190000000001</v>
+        <v>170.17500000000001</v>
       </c>
       <c r="G22">
-        <v>5731.3230000000003</v>
+        <v>740.81100000000004</v>
       </c>
       <c r="H22">
-        <v>12762.92</v>
+        <v>1089.5930000000001</v>
       </c>
       <c r="I22">
-        <v>71.480999999999995</v>
+        <v>7.4779999999999998</v>
       </c>
       <c r="J22">
-        <v>1286.095</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2528,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5617.0050000000001</v>
+        <v>605.91700000000003</v>
       </c>
       <c r="O22">
-        <v>7760.0510000000004</v>
+        <v>628.59100000000001</v>
       </c>
       <c r="P22">
-        <v>2048.5659999999998</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="Q22">
-        <v>-64.954999999999998</v>
+        <v>118.334</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>39478</v>
       </c>
       <c r="S22">
-        <v>19000</v>
+        <v>2606</v>
       </c>
       <c r="T22">
-        <v>5002.8689999999997</v>
+        <v>461.00200000000001</v>
       </c>
       <c r="U22">
-        <v>1158.3630000000001</v>
+        <v>279.09500000000003</v>
       </c>
       <c r="V22">
-        <v>470.20800000000003</v>
+        <v>80.793000000000006</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>74.165999999999997</v>
+        <v>24.088000000000001</v>
       </c>
       <c r="Y22">
-        <v>747.06899999999996</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="Z22">
-        <v>-536.76700000000005</v>
+        <v>22.271000000000001</v>
       </c>
       <c r="AA22">
-        <v>-25.509</v>
+        <v>7.3789999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42490</v>
+        <v>39568</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>38.759</v>
+        <v>9.5549999999999997</v>
       </c>
       <c r="D23">
-        <v>1916.6030000000001</v>
+        <v>247.62200000000001</v>
       </c>
       <c r="E23">
-        <v>1192.9649999999999</v>
+        <v>143.90899999999999</v>
       </c>
       <c r="F23">
-        <v>1419.6220000000001</v>
+        <v>196.32400000000001</v>
       </c>
       <c r="G23">
-        <v>3774.672</v>
+        <v>713.40899999999999</v>
       </c>
       <c r="H23">
-        <v>12817.27</v>
+        <v>1119.5930000000001</v>
       </c>
       <c r="I23">
-        <v>54.582999999999998</v>
+        <v>19.315000000000001</v>
       </c>
       <c r="J23">
-        <v>1293.17</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2608,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-49.968000000000004</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="N23">
-        <v>5085.1030000000001</v>
+        <v>580.97900000000004</v>
       </c>
       <c r="O23">
-        <v>7233.0060000000003</v>
+        <v>606.06899999999996</v>
       </c>
       <c r="P23">
-        <v>2065.4549999999999</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>640.72</v>
+        <v>99.453000000000003</v>
       </c>
       <c r="R23">
-        <v>42490</v>
+        <v>39568</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5584.2640000000001</v>
+        <v>513.524</v>
       </c>
       <c r="U23">
-        <v>1799.0830000000001</v>
+        <v>378.548</v>
       </c>
       <c r="V23">
-        <v>1051.0619999999999</v>
+        <v>83.831999999999994</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>39.173000000000002</v>
+        <v>24.178000000000001</v>
       </c>
       <c r="Y23">
-        <v>754.14599999999996</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>-365.178</v>
+        <v>16.54</v>
       </c>
       <c r="AA23">
-        <v>38.759</v>
+        <v>9.5549999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>39660</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>229.62200000000001</v>
+        <v>9.9960000000000004</v>
       </c>
       <c r="D24">
-        <v>2036.6179999999999</v>
+        <v>263.077</v>
       </c>
       <c r="E24">
-        <v>1548.1179999999999</v>
+        <v>146.982</v>
       </c>
       <c r="F24">
-        <v>1511.039</v>
+        <v>208.98599999999999</v>
       </c>
       <c r="G24">
-        <v>3277.9989999999998</v>
+        <v>802.12800000000004</v>
       </c>
       <c r="H24">
-        <v>14381.314</v>
+        <v>1203.5429999999999</v>
       </c>
       <c r="I24">
-        <v>101.404</v>
+        <v>14.428000000000001</v>
       </c>
       <c r="J24">
-        <v>1796.9290000000001</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,81 +2691,81 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-12.795</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5376.0959999999995</v>
+        <v>599.82500000000005</v>
       </c>
       <c r="O24">
-        <v>8248.7379999999994</v>
+        <v>625.69799999999998</v>
       </c>
       <c r="P24">
-        <v>2515.011</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-683.85699999999997</v>
+        <v>48.494999999999997</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>39660</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>3046</v>
       </c>
       <c r="T24">
-        <v>6132.576</v>
+        <v>577.84500000000003</v>
       </c>
       <c r="U24">
-        <v>1115.2260000000001</v>
+        <v>427.04300000000001</v>
       </c>
       <c r="V24">
-        <v>250.678</v>
+        <v>53.075000000000003</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>616.63300000000004</v>
+        <v>34.368000000000002</v>
       </c>
       <c r="Y24">
-        <v>698.69100000000003</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1351.7919999999999</v>
+        <v>-25.117999999999999</v>
       </c>
       <c r="AA24">
-        <v>229.62200000000001</v>
+        <v>9.9960000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42674</v>
+        <v>39752</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-37.308999999999997</v>
+        <v>10.124000000000001</v>
       </c>
       <c r="D25">
-        <v>2144.7750000000001</v>
+        <v>276.48700000000002</v>
       </c>
       <c r="E25">
-        <v>1281.425</v>
+        <v>157.68</v>
       </c>
       <c r="F25">
-        <v>1559.2529999999999</v>
+        <v>220.13900000000001</v>
       </c>
       <c r="G25">
-        <v>3001.5540000000001</v>
+        <v>848.55899999999997</v>
       </c>
       <c r="H25">
-        <v>14387.669</v>
+        <v>1275.731</v>
       </c>
       <c r="I25">
-        <v>140.541</v>
+        <v>20.875</v>
       </c>
       <c r="J25">
-        <v>1804.3710000000001</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,81 +2774,81 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-10.997</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="N25">
-        <v>4975.5339999999997</v>
+        <v>615.44200000000001</v>
       </c>
       <c r="O25">
-        <v>7581.6319999999996</v>
+        <v>643.91600000000005</v>
       </c>
       <c r="P25">
-        <v>2515.6959999999999</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="Q25">
-        <v>30.51</v>
+        <v>-44.728999999999999</v>
       </c>
       <c r="R25">
-        <v>42674</v>
+        <v>39752</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3318</v>
       </c>
       <c r="T25">
-        <v>6806.0370000000003</v>
+        <v>631.81500000000005</v>
       </c>
       <c r="U25">
-        <v>1145.7360000000001</v>
+        <v>382.31400000000002</v>
       </c>
       <c r="V25">
-        <v>154.31200000000001</v>
+        <v>17.120999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>81.849000000000004</v>
+        <v>24.015000000000001</v>
       </c>
       <c r="Y25">
-        <v>691.83299999999997</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-21.013999999999999</v>
+        <v>-30.263000000000002</v>
       </c>
       <c r="AA25">
-        <v>-37.308999999999997</v>
+        <v>10.124000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42766</v>
+        <v>39844</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-51.44</v>
+        <v>13.753</v>
       </c>
       <c r="D26">
-        <v>2293.9879999999998</v>
+        <v>289.58300000000003</v>
       </c>
       <c r="E26">
-        <v>3196.643</v>
+        <v>266.55500000000001</v>
       </c>
       <c r="F26">
-        <v>1668.0309999999999</v>
+        <v>230.84899999999999</v>
       </c>
       <c r="G26">
-        <v>5996.8270000000002</v>
+        <v>1068.557</v>
       </c>
       <c r="H26">
-        <v>17584.922999999999</v>
+        <v>1479.8219999999999</v>
       </c>
       <c r="I26">
-        <v>115.25700000000001</v>
+        <v>16.379000000000001</v>
       </c>
       <c r="J26">
-        <v>2008.3910000000001</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2860,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>7295.4660000000003</v>
+        <v>766.96600000000001</v>
       </c>
       <c r="O26">
-        <v>10084.796</v>
+        <v>797.33500000000004</v>
       </c>
       <c r="P26">
-        <v>2792.058</v>
+        <v>7.6159999999999997</v>
       </c>
       <c r="Q26">
-        <v>460.81299999999999</v>
+        <v>101.52</v>
       </c>
       <c r="R26">
-        <v>42766</v>
+        <v>39844</v>
       </c>
       <c r="S26">
-        <v>25000</v>
+        <v>3566</v>
       </c>
       <c r="T26">
-        <v>7500.1270000000004</v>
+        <v>682.48699999999997</v>
       </c>
       <c r="U26">
-        <v>1606.549</v>
+        <v>483.834</v>
       </c>
       <c r="V26">
-        <v>706.14599999999996</v>
+        <v>75.528999999999996</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>260.04300000000001</v>
+        <v>14.35</v>
       </c>
       <c r="Y26">
-        <v>681.56100000000004</v>
+        <v>7.6159999999999997</v>
       </c>
       <c r="Z26">
-        <v>6.7560000000000002</v>
+        <v>28.431999999999999</v>
       </c>
       <c r="AA26">
-        <v>-51.44</v>
+        <v>13.753</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39933</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>18.436</v>
       </c>
       <c r="D27">
-        <v>2397</v>
+        <v>304.92399999999998</v>
       </c>
       <c r="E27">
-        <v>1439.875</v>
+        <v>145.869</v>
       </c>
       <c r="F27">
-        <v>1746</v>
+        <v>243.124</v>
       </c>
       <c r="G27">
-        <v>5404.491</v>
+        <v>762.86</v>
       </c>
       <c r="H27">
-        <v>17058.93</v>
+        <v>1467.7</v>
       </c>
       <c r="I27">
-        <v>128.065</v>
+        <v>15.757</v>
       </c>
       <c r="J27">
-        <v>695.84500000000003</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2940,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-209</v>
+        <v>-1.248</v>
       </c>
       <c r="N27">
-        <v>7625.8630000000003</v>
+        <v>690.09400000000005</v>
       </c>
       <c r="O27">
-        <v>9124.4419999999991</v>
+        <v>728.89700000000005</v>
       </c>
       <c r="P27">
-        <v>2535.4960000000001</v>
+        <v>14.879</v>
       </c>
       <c r="Q27">
-        <v>418</v>
+        <v>-142.12899999999999</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39933</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>3607</v>
       </c>
       <c r="T27">
-        <v>7934.4880000000003</v>
+        <v>738.803</v>
       </c>
       <c r="U27">
-        <v>2024.904</v>
+        <v>341.70499999999998</v>
       </c>
       <c r="V27">
-        <v>1230</v>
+        <v>97.975999999999999</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-49</v>
+        <v>17.367999999999999</v>
       </c>
       <c r="Y27">
-        <v>696.43100000000004</v>
+        <v>14.879</v>
       </c>
       <c r="Z27">
-        <v>-591</v>
+        <v>-242.63800000000001</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>18.436</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42947</v>
+        <v>40025</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>21.198</v>
       </c>
       <c r="D28">
-        <v>2577</v>
+        <v>316.06099999999998</v>
       </c>
       <c r="E28">
-        <v>1569.3219999999999</v>
+        <v>168.84200000000001</v>
       </c>
       <c r="F28">
-        <v>1907</v>
+        <v>253.565</v>
       </c>
       <c r="G28">
-        <v>5811.3410000000003</v>
+        <v>701.31799999999998</v>
       </c>
       <c r="H28">
-        <v>17418.803</v>
+        <v>1556.527</v>
       </c>
       <c r="I28">
-        <v>148.279</v>
+        <v>13.388999999999999</v>
       </c>
       <c r="J28">
-        <v>696.19899999999996</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,81 +3023,81 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-66</v>
+        <v>-2.258</v>
       </c>
       <c r="N28">
-        <v>7526.1850000000004</v>
+        <v>712.58799999999997</v>
       </c>
       <c r="O28">
-        <v>8967.4889999999996</v>
+        <v>754.13699999999994</v>
       </c>
       <c r="P28">
-        <v>2582.0909999999999</v>
+        <v>14.795999999999999</v>
       </c>
       <c r="Q28">
-        <v>-76</v>
+        <v>-95.536000000000001</v>
       </c>
       <c r="R28">
-        <v>42947</v>
+        <v>40025</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>3653</v>
       </c>
       <c r="T28">
-        <v>8451.3140000000003</v>
+        <v>802.39</v>
       </c>
       <c r="U28">
-        <v>1949.11</v>
+        <v>246.16900000000001</v>
       </c>
       <c r="V28">
-        <v>331</v>
+        <v>45.854999999999997</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>117</v>
+        <v>18.568000000000001</v>
       </c>
       <c r="Y28">
-        <v>616.47799999999995</v>
+        <v>14.795999999999999</v>
       </c>
       <c r="Z28">
-        <v>-396</v>
+        <v>-139.09299999999999</v>
       </c>
       <c r="AA28">
-        <v>46</v>
+        <v>21.198</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43039</v>
+        <v>40117</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>107</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="D29">
-        <v>2701</v>
+        <v>330.54899999999998</v>
       </c>
       <c r="E29">
-        <v>1519.9159999999999</v>
+        <v>191.297</v>
       </c>
       <c r="F29">
-        <v>1987</v>
+        <v>264.97899999999998</v>
       </c>
       <c r="G29">
-        <v>5946.17</v>
+        <v>762.91499999999996</v>
       </c>
       <c r="H29">
-        <v>17490.036</v>
+        <v>1643.201</v>
       </c>
       <c r="I29">
-        <v>120.01900000000001</v>
+        <v>15.617000000000001</v>
       </c>
       <c r="J29">
-        <v>696.55499999999995</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,81 +3106,81 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-8</v>
+        <v>-2.3980000000000001</v>
       </c>
       <c r="N29">
-        <v>7216.4440000000004</v>
+        <v>726.47799999999995</v>
       </c>
       <c r="O29">
-        <v>8660.6659999999993</v>
+        <v>772.66099999999994</v>
       </c>
       <c r="P29">
-        <v>2588.232</v>
+        <v>17.786999999999999</v>
       </c>
       <c r="Q29">
-        <v>123</v>
+        <v>-3.2810000000000001</v>
       </c>
       <c r="R29">
-        <v>43039</v>
+        <v>40117</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3814</v>
       </c>
       <c r="T29">
-        <v>8829.3700000000008</v>
+        <v>870.54</v>
       </c>
       <c r="U29">
-        <v>2071.837</v>
+        <v>242.88800000000001</v>
       </c>
       <c r="V29">
-        <v>125</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>134</v>
+        <v>23.562000000000001</v>
       </c>
       <c r="Y29">
-        <v>619.67700000000002</v>
+        <v>14.952</v>
       </c>
       <c r="Z29">
-        <v>-24</v>
+        <v>-44.942999999999998</v>
       </c>
       <c r="AA29">
-        <v>107</v>
+        <v>20.690999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43131</v>
+        <v>40209</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>206</v>
+        <v>20.393999999999998</v>
       </c>
       <c r="D30">
-        <v>2865</v>
+        <v>354.04899999999998</v>
       </c>
       <c r="E30">
-        <v>3921</v>
+        <v>320.95600000000002</v>
       </c>
       <c r="F30">
-        <v>2127</v>
+        <v>285.99</v>
       </c>
       <c r="G30">
-        <v>9584</v>
+        <v>1706.1590000000001</v>
       </c>
       <c r="H30">
-        <v>21984</v>
+        <v>2460.201</v>
       </c>
       <c r="I30">
-        <v>76</v>
+        <v>14.791</v>
       </c>
       <c r="J30">
-        <v>695</v>
+        <v>450.19799999999998</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3192,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>10067</v>
+        <v>908.13</v>
       </c>
       <c r="O30">
-        <v>11608</v>
+        <v>1403.5350000000001</v>
       </c>
       <c r="P30">
-        <v>1720</v>
+        <v>463.68299999999999</v>
       </c>
       <c r="Q30">
-        <v>471</v>
+        <v>768.41800000000001</v>
       </c>
       <c r="R30">
-        <v>43131</v>
+        <v>40209</v>
       </c>
       <c r="S30">
-        <v>29000</v>
+        <v>3969</v>
       </c>
       <c r="T30">
-        <v>10376</v>
+        <v>1056.6659999999999</v>
       </c>
       <c r="U30">
-        <v>2543</v>
+        <v>1011.306</v>
       </c>
       <c r="V30">
-        <v>1052</v>
+        <v>91.56</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>19</v>
+        <v>577.65499999999997</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>13.484999999999999</v>
       </c>
       <c r="Z30">
-        <v>-441</v>
+        <v>109.55800000000001</v>
       </c>
       <c r="AA30">
-        <v>206</v>
+        <v>20.393999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43220</v>
+        <v>40298</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>344</v>
+        <v>17.745000000000001</v>
       </c>
       <c r="D31">
-        <v>3006</v>
+        <v>376.81299999999999</v>
       </c>
       <c r="E31">
-        <v>1763</v>
+        <v>183.61199999999999</v>
       </c>
       <c r="F31">
-        <v>2239</v>
+        <v>305.23200000000003</v>
       </c>
       <c r="G31">
-        <v>10151</v>
+        <v>1263.752</v>
       </c>
       <c r="H31">
-        <v>22963</v>
+        <v>2488.0970000000002</v>
       </c>
       <c r="I31">
-        <v>134</v>
+        <v>13.132999999999999</v>
       </c>
       <c r="J31">
-        <v>3172</v>
+        <v>455.649</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3272,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1046</v>
+        <v>-1.9179999999999999</v>
       </c>
       <c r="N31">
-        <v>7895</v>
+        <v>838.1</v>
       </c>
       <c r="O31">
-        <v>11903</v>
+        <v>1339.73</v>
       </c>
       <c r="P31">
-        <v>3988</v>
+        <v>469.815</v>
       </c>
       <c r="Q31">
-        <v>3379</v>
+        <v>-320.512</v>
       </c>
       <c r="R31">
-        <v>43220</v>
+        <v>40298</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>11060</v>
+        <v>1148.367</v>
       </c>
       <c r="U31">
-        <v>5922</v>
+        <v>690.79399999999998</v>
       </c>
       <c r="V31">
-        <v>1466</v>
+        <v>143.18299999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>1625</v>
+        <v>43.613</v>
       </c>
       <c r="Y31">
-        <v>713</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="Z31">
-        <v>580</v>
+        <v>-496.44299999999998</v>
       </c>
       <c r="AA31">
-        <v>344</v>
+        <v>17.745000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43312</v>
+        <v>40390</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>299</v>
+        <v>14.744</v>
       </c>
       <c r="D32">
-        <v>3281</v>
+        <v>394.37200000000001</v>
       </c>
       <c r="E32">
-        <v>1980</v>
+        <v>228.55</v>
       </c>
       <c r="F32">
-        <v>2432</v>
+        <v>316.58199999999999</v>
       </c>
       <c r="G32">
-        <v>6802</v>
+        <v>1112.136</v>
       </c>
       <c r="H32">
-        <v>25823</v>
+        <v>2698.4760000000001</v>
       </c>
       <c r="I32">
-        <v>201</v>
+        <v>20.745000000000001</v>
       </c>
       <c r="J32">
-        <v>3173</v>
+        <v>461.18200000000002</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,81 +3355,81 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-89</v>
+        <v>-2.1230000000000002</v>
       </c>
       <c r="N32">
-        <v>8469</v>
+        <v>928.56600000000003</v>
       </c>
       <c r="O32">
-        <v>12295</v>
+        <v>1442.921</v>
       </c>
       <c r="P32">
-        <v>4398</v>
+        <v>478.96699999999998</v>
       </c>
       <c r="Q32">
-        <v>-3603</v>
+        <v>-280.86900000000003</v>
       </c>
       <c r="R32">
-        <v>43312</v>
+        <v>40390</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>13528</v>
+        <v>1255.5550000000001</v>
       </c>
       <c r="U32">
-        <v>2319</v>
+        <v>409.92500000000001</v>
       </c>
       <c r="V32">
-        <v>458</v>
+        <v>76.096000000000004</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>589</v>
+        <v>54.905999999999999</v>
       </c>
       <c r="Y32">
-        <v>517</v>
+        <v>12.75</v>
       </c>
       <c r="Z32">
-        <v>312</v>
+        <v>-236.03</v>
       </c>
       <c r="AA32">
-        <v>299</v>
+        <v>14.744</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43404</v>
+        <v>40482</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>105</v>
+        <v>21.071999999999999</v>
       </c>
       <c r="D33">
-        <v>3392</v>
+        <v>429.08699999999999</v>
       </c>
       <c r="E33">
-        <v>2037</v>
+        <v>258.76400000000001</v>
       </c>
       <c r="F33">
-        <v>2503</v>
+        <v>346.95600000000002</v>
       </c>
       <c r="G33">
-        <v>6870</v>
+        <v>1192.9359999999999</v>
       </c>
       <c r="H33">
-        <v>26588</v>
+        <v>2740.694</v>
       </c>
       <c r="I33">
-        <v>160</v>
+        <v>23.32</v>
       </c>
       <c r="J33">
-        <v>3173</v>
+        <v>466.84699999999998</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3342,81 +3438,81 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-3</v>
+        <v>-3.1160000000000001</v>
       </c>
       <c r="N33">
-        <v>8022</v>
+        <v>993.04499999999996</v>
       </c>
       <c r="O33">
-        <v>11895</v>
+        <v>1528.2280000000001</v>
       </c>
       <c r="P33">
-        <v>4391</v>
+        <v>494.79599999999999</v>
       </c>
       <c r="Q33">
-        <v>-214</v>
+        <v>220.37799999999999</v>
       </c>
       <c r="R33">
-        <v>43404</v>
+        <v>40482</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>14693</v>
+        <v>1212.4659999999999</v>
       </c>
       <c r="U33">
-        <v>2105</v>
+        <v>630.303</v>
       </c>
       <c r="V33">
-        <v>143</v>
+        <v>74.040000000000006</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>182</v>
+        <v>-95.155000000000001</v>
       </c>
       <c r="Y33">
-        <v>512</v>
+        <v>27.949000000000002</v>
       </c>
       <c r="Z33">
-        <v>-279</v>
+        <v>276.33999999999997</v>
       </c>
       <c r="AA33">
-        <v>105</v>
+        <v>21.071999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43496</v>
+        <v>40574</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>362</v>
+        <v>10.913</v>
       </c>
       <c r="D34">
-        <v>3603</v>
+        <v>456.86700000000002</v>
       </c>
       <c r="E34">
-        <v>5139</v>
+        <v>426.94299999999998</v>
       </c>
       <c r="F34">
-        <v>2657</v>
+        <v>364.55599999999998</v>
       </c>
       <c r="G34">
-        <v>10683</v>
+        <v>1074.924</v>
       </c>
       <c r="H34">
-        <v>30737</v>
+        <v>3091.165</v>
       </c>
       <c r="I34">
-        <v>2461</v>
+        <v>18.106000000000002</v>
       </c>
       <c r="J34">
-        <v>3173</v>
+        <v>472.53800000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3524,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>11255</v>
+        <v>1276.4659999999999</v>
       </c>
       <c r="O34">
-        <v>15132</v>
+        <v>1814.674</v>
       </c>
       <c r="P34">
-        <v>3579</v>
+        <v>498.02499999999998</v>
       </c>
       <c r="Q34">
-        <v>564</v>
+        <v>-206.011</v>
       </c>
       <c r="R34">
-        <v>43496</v>
+        <v>40574</v>
       </c>
       <c r="S34">
-        <v>35000</v>
+        <v>5306</v>
       </c>
       <c r="T34">
-        <v>15605</v>
+        <v>1276.491</v>
       </c>
       <c r="U34">
-        <v>2669</v>
+        <v>424.29199999999997</v>
       </c>
       <c r="V34">
-        <v>1331</v>
+        <v>165.762</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-386</v>
+        <v>10.71</v>
       </c>
       <c r="Y34">
-        <v>193</v>
+        <v>25.486999999999998</v>
       </c>
       <c r="Z34">
-        <v>-211</v>
+        <v>165.74100000000001</v>
       </c>
       <c r="AA34">
-        <v>362</v>
+        <v>10.913</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43585</v>
+        <v>40663</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>392</v>
+        <v>0.53</v>
       </c>
       <c r="D35">
-        <v>3737</v>
+        <v>504.36399999999998</v>
       </c>
       <c r="E35">
-        <v>2413</v>
+        <v>270.81599999999997</v>
       </c>
       <c r="F35">
-        <v>2823</v>
+        <v>401.298</v>
       </c>
       <c r="G35">
-        <v>10035</v>
+        <v>1188.1289999999999</v>
       </c>
       <c r="H35">
-        <v>33154</v>
+        <v>3128.0680000000002</v>
       </c>
       <c r="I35">
-        <v>2050</v>
+        <v>16.969000000000001</v>
       </c>
       <c r="J35">
-        <v>3173</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3604,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-12</v>
+        <v>-3.5619999999999998</v>
       </c>
       <c r="N35">
-        <v>10488</v>
+        <v>1685.212</v>
       </c>
       <c r="O35">
-        <v>16708</v>
+        <v>1872.4259999999999</v>
       </c>
       <c r="P35">
-        <v>6768</v>
+        <v>537.71</v>
       </c>
       <c r="Q35">
-        <v>1441</v>
+        <v>240.32</v>
       </c>
       <c r="R35">
-        <v>43585</v>
+        <v>40663</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>16446</v>
+        <v>1255.6420000000001</v>
       </c>
       <c r="U35">
-        <v>4110</v>
+        <v>664.61199999999997</v>
       </c>
       <c r="V35">
-        <v>1965</v>
+        <v>139.518</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>207</v>
+        <v>27.957999999999998</v>
       </c>
       <c r="Y35">
-        <v>2742</v>
+        <v>49.061999999999998</v>
       </c>
       <c r="Z35">
-        <v>-557</v>
+        <v>121.02500000000001</v>
       </c>
       <c r="AA35">
-        <v>392</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43677</v>
+        <v>40755</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>91</v>
+        <v>-4.2679999999999998</v>
       </c>
       <c r="D36">
-        <v>3997</v>
+        <v>546.00199999999995</v>
       </c>
       <c r="E36">
-        <v>2600</v>
+        <v>342.39699999999999</v>
       </c>
       <c r="F36">
-        <v>3030</v>
+        <v>425.09199999999998</v>
       </c>
       <c r="G36">
-        <v>9903</v>
+        <v>1114.8219999999999</v>
       </c>
       <c r="H36">
-        <v>33336</v>
+        <v>3421.328</v>
       </c>
       <c r="I36">
-        <v>2271</v>
+        <v>22.321000000000002</v>
       </c>
       <c r="J36">
-        <v>2973</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3591,81 +3687,81 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-335</v>
+        <v>-10.548999999999999</v>
       </c>
       <c r="N36">
-        <v>10195</v>
+        <v>1814.057</v>
       </c>
       <c r="O36">
-        <v>16170</v>
+        <v>2003.2049999999999</v>
       </c>
       <c r="P36">
-        <v>6432</v>
+        <v>538.21299999999997</v>
       </c>
       <c r="Q36">
-        <v>-600</v>
+        <v>-214.81800000000001</v>
       </c>
       <c r="R36">
-        <v>43677</v>
+        <v>40755</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>17166</v>
+        <v>1418.123</v>
       </c>
       <c r="U36">
-        <v>3510</v>
+        <v>449.79399999999998</v>
       </c>
       <c r="V36">
-        <v>436</v>
+        <v>82.933000000000007</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-183</v>
+        <v>20.419</v>
       </c>
       <c r="Y36">
-        <v>2677</v>
+        <v>46.088000000000001</v>
       </c>
       <c r="Z36">
-        <v>-251</v>
+        <v>13.88</v>
       </c>
       <c r="AA36">
-        <v>91</v>
+        <v>-4.2679999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43769</v>
+        <v>40847</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-109</v>
+        <v>-3.7559999999999998</v>
       </c>
       <c r="D37">
-        <v>4513</v>
+        <v>584.26</v>
       </c>
       <c r="E37">
-        <v>3034</v>
+        <v>312.33100000000002</v>
       </c>
       <c r="F37">
-        <v>3379</v>
+        <v>455.69499999999999</v>
       </c>
       <c r="G37">
-        <v>11026</v>
+        <v>1148.24</v>
       </c>
       <c r="H37">
-        <v>49942</v>
+        <v>3511.2779999999998</v>
       </c>
       <c r="I37">
-        <v>2763</v>
+        <v>28.265000000000001</v>
       </c>
       <c r="J37">
-        <v>2824</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,81 +3770,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-164</v>
+        <v>-7.6849999999999996</v>
       </c>
       <c r="N37">
-        <v>10474</v>
+        <v>1832.5889999999999</v>
       </c>
       <c r="O37">
-        <v>16663</v>
+        <v>2012.8889999999999</v>
       </c>
       <c r="P37">
-        <v>6493</v>
+        <v>555.1</v>
       </c>
       <c r="Q37">
-        <v>358</v>
+        <v>53.192999999999998</v>
       </c>
       <c r="R37">
-        <v>43769</v>
+        <v>40847</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>33279</v>
+        <v>1498.3889999999999</v>
       </c>
       <c r="U37">
-        <v>3868</v>
+        <v>502.98700000000002</v>
       </c>
       <c r="V37">
-        <v>298</v>
+        <v>128.709</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>15</v>
+        <v>15.000999999999999</v>
       </c>
       <c r="Y37">
-        <v>2869</v>
+        <v>52.558999999999997</v>
       </c>
       <c r="Z37">
-        <v>139</v>
+        <v>17.658999999999999</v>
       </c>
       <c r="AA37">
-        <v>-109</v>
+        <v>-3.7559999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43861</v>
+        <v>40939</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-248</v>
+        <v>-4.0780000000000003</v>
       </c>
       <c r="D38">
-        <v>4851</v>
+        <v>631.91300000000001</v>
       </c>
       <c r="E38">
-        <v>6623</v>
+        <v>683.745</v>
       </c>
       <c r="F38">
-        <v>3631</v>
+        <v>495.56799999999998</v>
       </c>
       <c r="G38">
-        <v>15963</v>
+        <v>1672.222</v>
       </c>
       <c r="H38">
-        <v>55126</v>
+        <v>4164.1540000000005</v>
       </c>
       <c r="I38">
-        <v>1856</v>
+        <v>33.258000000000003</v>
       </c>
       <c r="J38">
-        <v>2673</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3856,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>14845</v>
+        <v>2300.0309999999999</v>
       </c>
       <c r="O38">
-        <v>21241</v>
+        <v>2576.7939999999999</v>
       </c>
       <c r="P38">
-        <v>6253</v>
+        <v>568.24</v>
       </c>
       <c r="Q38">
-        <v>277</v>
+        <v>104.297</v>
       </c>
       <c r="R38">
-        <v>43861</v>
+        <v>40939</v>
       </c>
       <c r="S38">
-        <v>49000</v>
+        <v>7785</v>
       </c>
       <c r="T38">
-        <v>33885</v>
+        <v>1587.36</v>
       </c>
       <c r="U38">
-        <v>4145</v>
+        <v>607.28399999999999</v>
       </c>
       <c r="V38">
-        <v>1632</v>
+        <v>240.34700000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>125</v>
+        <v>12.472</v>
       </c>
       <c r="Y38">
-        <v>2777</v>
+        <v>72.090999999999994</v>
       </c>
       <c r="Z38">
-        <v>-1299</v>
+        <v>-48.255000000000003</v>
       </c>
       <c r="AA38">
-        <v>-248</v>
+        <v>-4.0780000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43951</v>
+        <v>41029</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>99</v>
+        <v>-19.475000000000001</v>
       </c>
       <c r="D39">
-        <v>4865</v>
+        <v>695.46699999999998</v>
       </c>
       <c r="E39">
-        <v>3530</v>
+        <v>371.39499999999998</v>
       </c>
       <c r="F39">
-        <v>3611</v>
+        <v>543.91600000000005</v>
       </c>
       <c r="G39">
-        <v>14713</v>
+        <v>1323.0329999999999</v>
       </c>
       <c r="H39">
-        <v>53623</v>
+        <v>4156.0919999999996</v>
       </c>
       <c r="I39">
-        <v>1963</v>
+        <v>19.751999999999999</v>
       </c>
       <c r="J39">
-        <v>2673</v>
+        <v>502.32600000000002</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3936,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-49</v>
+        <v>-7.5739999999999998</v>
       </c>
       <c r="N39">
-        <v>12843</v>
+        <v>1676.8520000000001</v>
       </c>
       <c r="O39">
-        <v>19058</v>
+        <v>2346.3229999999999</v>
       </c>
       <c r="P39">
-        <v>6212</v>
+        <v>562.56200000000001</v>
       </c>
       <c r="Q39">
-        <v>1627</v>
+        <v>-166.499</v>
       </c>
       <c r="R39">
-        <v>43951</v>
+        <v>41029</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>34565</v>
+        <v>1809.769</v>
       </c>
       <c r="U39">
-        <v>5772</v>
+        <v>440.78500000000003</v>
       </c>
       <c r="V39">
-        <v>1859</v>
+        <v>213.21199999999999</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>209</v>
+        <v>97.036000000000001</v>
       </c>
       <c r="Y39">
-        <v>2744</v>
+        <v>47.787999999999997</v>
       </c>
       <c r="Z39">
-        <v>-11</v>
+        <v>-377.24700000000001</v>
       </c>
       <c r="AA39">
-        <v>99</v>
+        <v>-19.475000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>41121</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>2625</v>
+        <v>-9.8290000000000006</v>
       </c>
       <c r="D40">
-        <v>5151</v>
+        <v>731.649</v>
       </c>
       <c r="E40">
-        <v>3953</v>
+        <v>446.91699999999997</v>
       </c>
       <c r="F40">
-        <v>3840</v>
+        <v>569.23099999999999</v>
       </c>
       <c r="G40">
-        <v>14846</v>
+        <v>1853.125</v>
       </c>
       <c r="H40">
-        <v>57780</v>
+        <v>4453.57</v>
       </c>
       <c r="I40">
-        <v>2077</v>
+        <v>69.338999999999999</v>
       </c>
       <c r="J40">
-        <v>2673</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,81 +4019,81 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-25</v>
+        <v>-7.4790000000000001</v>
       </c>
       <c r="N40">
-        <v>12963</v>
+        <v>2329.1669999999999</v>
       </c>
       <c r="O40">
-        <v>19340</v>
+        <v>2561.2559999999999</v>
       </c>
       <c r="P40">
-        <v>6188</v>
+        <v>570.17100000000005</v>
       </c>
       <c r="Q40">
-        <v>-1720</v>
+        <v>559.94500000000005</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>41121</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>38440</v>
+        <v>1892.3140000000001</v>
       </c>
       <c r="U40">
-        <v>4052</v>
+        <v>1000.73</v>
       </c>
       <c r="V40">
-        <v>429</v>
+        <v>136.197</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>441</v>
+        <v>41.046999999999997</v>
       </c>
       <c r="Y40">
-        <v>2734</v>
+        <v>49.79</v>
       </c>
       <c r="Z40">
-        <v>-1325</v>
+        <v>411.66800000000001</v>
       </c>
       <c r="AA40">
-        <v>2625</v>
+        <v>-9.8290000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44135</v>
+        <v>41213</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1081</v>
+        <v>-220.297</v>
       </c>
       <c r="D41">
-        <v>5419</v>
+        <v>788.39800000000002</v>
       </c>
       <c r="E41">
-        <v>3890</v>
+        <v>418.59</v>
       </c>
       <c r="F41">
-        <v>4025</v>
+        <v>602.15</v>
       </c>
       <c r="G41">
-        <v>14946</v>
+        <v>1257.2850000000001</v>
       </c>
       <c r="H41">
-        <v>59136</v>
+        <v>4642.29</v>
       </c>
       <c r="I41">
-        <v>1893</v>
+        <v>57.94</v>
       </c>
       <c r="J41">
-        <v>2672</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,131 +4102,2787 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-13</v>
+        <v>-7.6639999999999997</v>
       </c>
       <c r="N41">
-        <v>12234</v>
+        <v>2323.2159999999999</v>
       </c>
       <c r="O41">
-        <v>18826</v>
+        <v>2558.6750000000002</v>
       </c>
       <c r="P41">
-        <v>6223</v>
+        <v>578.67499999999995</v>
       </c>
       <c r="Q41">
-        <v>-328</v>
+        <v>-479.01</v>
       </c>
       <c r="R41">
-        <v>44135</v>
+        <v>41213</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>40310</v>
+        <v>2083.6149999999998</v>
       </c>
       <c r="U41">
-        <v>3724</v>
+        <v>521.72</v>
       </c>
       <c r="V41">
-        <v>339</v>
+        <v>105.91500000000001</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>368</v>
+        <v>71.978999999999999</v>
       </c>
       <c r="Y41">
-        <v>2774</v>
+        <v>55.921999999999997</v>
       </c>
       <c r="Z41">
-        <v>-887</v>
+        <v>-91.084999999999994</v>
       </c>
       <c r="AA41">
-        <v>1081</v>
+        <v>-220.297</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>41305</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-20.844000000000001</v>
+      </c>
+      <c r="D42">
+        <v>834.68100000000004</v>
+      </c>
+      <c r="E42">
+        <v>872.63400000000001</v>
+      </c>
+      <c r="F42">
+        <v>651.31899999999996</v>
+      </c>
+      <c r="G42">
+        <v>2015.88</v>
+      </c>
+      <c r="H42">
+        <v>5528.9560000000001</v>
+      </c>
+      <c r="I42">
+        <v>14.535</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2917.6239999999998</v>
+      </c>
+      <c r="O42">
+        <v>3211.3229999999999</v>
+      </c>
+      <c r="P42">
+        <v>521.27800000000002</v>
+      </c>
+      <c r="Q42">
+        <v>225.52500000000001</v>
+      </c>
+      <c r="R42">
+        <v>41305</v>
+      </c>
+      <c r="S42">
+        <v>9800</v>
+      </c>
+      <c r="T42">
+        <v>2317.6329999999998</v>
+      </c>
+      <c r="U42">
+        <v>747.245</v>
+      </c>
+      <c r="V42">
+        <v>281.57299999999998</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>124.483</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-122.80200000000001</v>
+      </c>
+      <c r="AA42">
+        <v>-20.844000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-67.721000000000004</v>
+      </c>
+      <c r="D43">
+        <v>892.63300000000004</v>
+      </c>
+      <c r="E43">
+        <v>502.60899999999998</v>
+      </c>
+      <c r="F43">
+        <v>683.63900000000001</v>
+      </c>
+      <c r="G43">
+        <v>2876.0390000000002</v>
+      </c>
+      <c r="H43">
+        <v>6513.7089999999998</v>
+      </c>
+      <c r="I43">
+        <v>31.521999999999998</v>
+      </c>
+      <c r="J43">
+        <v>1029.4949999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-8.4990000000000006</v>
+      </c>
+      <c r="N43">
+        <v>2729.6869999999999</v>
+      </c>
+      <c r="O43">
+        <v>4050.913</v>
+      </c>
+      <c r="P43">
+        <v>1618.1220000000001</v>
+      </c>
+      <c r="Q43">
+        <v>1180.7449999999999</v>
+      </c>
+      <c r="R43">
+        <v>41394</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2462.7959999999998</v>
+      </c>
+      <c r="U43">
+        <v>1927.99</v>
+      </c>
+      <c r="V43">
+        <v>283.18900000000002</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1123.6410000000001</v>
+      </c>
+      <c r="Y43">
+        <v>60.817</v>
+      </c>
+      <c r="Z43">
+        <v>-143.10499999999999</v>
+      </c>
+      <c r="AA43">
+        <v>-67.721000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>76.602999999999994</v>
+      </c>
+      <c r="D44">
+        <v>957.09400000000005</v>
+      </c>
+      <c r="E44">
+        <v>750.04100000000005</v>
+      </c>
+      <c r="F44">
+        <v>739.37699999999995</v>
+      </c>
+      <c r="G44">
+        <v>1698.165</v>
+      </c>
+      <c r="H44">
+        <v>7969.8959999999997</v>
+      </c>
+      <c r="I44">
+        <v>66.858999999999995</v>
+      </c>
+      <c r="J44">
+        <v>1305.271</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-12.108000000000001</v>
+      </c>
+      <c r="N44">
+        <v>3063.3150000000001</v>
+      </c>
+      <c r="O44">
+        <v>5151.2470000000003</v>
+      </c>
+      <c r="P44">
+        <v>2386.7179999999998</v>
+      </c>
+      <c r="Q44">
+        <v>-1348.1089999999999</v>
+      </c>
+      <c r="R44">
+        <v>41486</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2818.6489999999999</v>
+      </c>
+      <c r="U44">
+        <v>579.88099999999997</v>
+      </c>
+      <c r="V44">
+        <v>183.18299999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>325.30900000000003</v>
+      </c>
+      <c r="Y44">
+        <v>487.87900000000002</v>
+      </c>
+      <c r="Z44">
+        <v>839.8</v>
+      </c>
+      <c r="AA44">
+        <v>76.602999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-124.434</v>
+      </c>
+      <c r="D45">
+        <v>1076.0340000000001</v>
+      </c>
+      <c r="E45">
+        <v>714.57899999999995</v>
+      </c>
+      <c r="F45">
+        <v>807.84699999999998</v>
+      </c>
+      <c r="G45">
+        <v>1800.886</v>
+      </c>
+      <c r="H45">
+        <v>8097.634</v>
+      </c>
+      <c r="I45">
+        <v>45.161999999999999</v>
+      </c>
+      <c r="J45">
+        <v>1303.5830000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-19.940000000000001</v>
+      </c>
+      <c r="N45">
+        <v>3096.6889999999999</v>
+      </c>
+      <c r="O45">
+        <v>5185.2780000000002</v>
+      </c>
+      <c r="P45">
+        <v>2393.328</v>
+      </c>
+      <c r="Q45">
+        <v>71.869</v>
+      </c>
+      <c r="R45">
+        <v>41578</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2912.3560000000002</v>
+      </c>
+      <c r="U45">
+        <v>651.75</v>
+      </c>
+      <c r="V45">
+        <v>137.85900000000001</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>92.347999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>518.62</v>
+      </c>
+      <c r="Z45">
+        <v>-90.82</v>
+      </c>
+      <c r="AA45">
+        <v>-124.434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-116.623</v>
+      </c>
+      <c r="D46">
+        <v>1145.242</v>
+      </c>
+      <c r="E46">
+        <v>1438.2049999999999</v>
+      </c>
+      <c r="F46">
+        <v>871.71199999999999</v>
+      </c>
+      <c r="G46">
+        <v>2680.252</v>
+      </c>
+      <c r="H46">
+        <v>9152.93</v>
+      </c>
+      <c r="I46">
+        <v>64.988</v>
+      </c>
+      <c r="J46">
+        <v>1301.93</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3980.1880000000001</v>
+      </c>
+      <c r="O46">
+        <v>6114.42</v>
+      </c>
+      <c r="P46">
+        <v>2508.5630000000001</v>
+      </c>
+      <c r="Q46">
+        <v>129.88499999999999</v>
+      </c>
+      <c r="R46">
+        <v>41670</v>
+      </c>
+      <c r="S46">
+        <v>13300</v>
+      </c>
+      <c r="T46">
+        <v>3038.51</v>
+      </c>
+      <c r="U46">
+        <v>781.63499999999999</v>
+      </c>
+      <c r="V46">
+        <v>271.238</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>56.936</v>
+      </c>
+      <c r="Y46">
+        <v>634.47400000000005</v>
+      </c>
+      <c r="Z46">
+        <v>-121.018</v>
+      </c>
+      <c r="AA46">
+        <v>-116.623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-96.911000000000001</v>
+      </c>
+      <c r="D47">
+        <v>1226.7719999999999</v>
+      </c>
+      <c r="E47">
+        <v>738.51499999999999</v>
+      </c>
+      <c r="F47">
+        <v>934.46699999999998</v>
+      </c>
+      <c r="G47">
+        <v>2039.3810000000001</v>
+      </c>
+      <c r="H47">
+        <v>8641.3439999999991</v>
+      </c>
+      <c r="I47">
+        <v>36.722999999999999</v>
+      </c>
+      <c r="J47">
+        <v>1300.3150000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-301.98599999999999</v>
+      </c>
+      <c r="N47">
+        <v>3359.9540000000002</v>
+      </c>
+      <c r="O47">
+        <v>5509.43</v>
+      </c>
+      <c r="P47">
+        <v>2171.8110000000001</v>
+      </c>
+      <c r="Q47">
+        <v>46.256</v>
+      </c>
+      <c r="R47">
+        <v>41759</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3131.9140000000002</v>
+      </c>
+      <c r="U47">
+        <v>827.89099999999996</v>
+      </c>
+      <c r="V47">
+        <v>473.08699999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-219.15</v>
+      </c>
+      <c r="Y47">
+        <v>503.84500000000003</v>
+      </c>
+      <c r="Z47">
+        <v>-180.27199999999999</v>
+      </c>
+      <c r="AA47">
+        <v>-96.911000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-61.088000000000001</v>
+      </c>
+      <c r="D48">
+        <v>1318.5509999999999</v>
+      </c>
+      <c r="E48">
+        <v>873.86300000000006</v>
+      </c>
+      <c r="F48">
+        <v>1010.72</v>
+      </c>
+      <c r="G48">
+        <v>2304.6869999999999</v>
+      </c>
+      <c r="H48">
+        <v>9009.8279999999995</v>
+      </c>
+      <c r="I48">
+        <v>83.603999999999999</v>
+      </c>
+      <c r="J48">
+        <v>1298.7370000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-61.533000000000001</v>
+      </c>
+      <c r="N48">
+        <v>3502.7379999999998</v>
+      </c>
+      <c r="O48">
+        <v>5709.26</v>
+      </c>
+      <c r="P48">
+        <v>2211.6869999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-53.165999999999997</v>
+      </c>
+      <c r="R48">
+        <v>41851</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3300.5680000000002</v>
+      </c>
+      <c r="U48">
+        <v>774.72500000000002</v>
+      </c>
+      <c r="V48">
+        <v>245.893</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-6.9189999999999996</v>
+      </c>
+      <c r="Y48">
+        <v>598.64200000000005</v>
+      </c>
+      <c r="Z48">
+        <v>-215.9</v>
+      </c>
+      <c r="AA48">
+        <v>-61.088000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-38.923999999999999</v>
+      </c>
+      <c r="D49">
+        <v>1383.655</v>
+      </c>
+      <c r="E49">
+        <v>822.66300000000001</v>
+      </c>
+      <c r="F49">
+        <v>1050.444</v>
+      </c>
+      <c r="G49">
+        <v>2439.1550000000002</v>
+      </c>
+      <c r="H49">
+        <v>9412.6630000000005</v>
+      </c>
+      <c r="I49">
+        <v>88.793999999999997</v>
+      </c>
+      <c r="J49">
+        <v>1364.683</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-369.99</v>
+      </c>
+      <c r="N49">
+        <v>3308.3519999999999</v>
+      </c>
+      <c r="O49">
+        <v>5622.049</v>
+      </c>
+      <c r="P49">
+        <v>2220.0940000000001</v>
+      </c>
+      <c r="Q49">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R49">
+        <v>41943</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3790.614</v>
+      </c>
+      <c r="U49">
+        <v>846.32500000000005</v>
+      </c>
+      <c r="V49">
+        <v>122.511</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>19.893000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>675.65599999999995</v>
+      </c>
+      <c r="Z49">
+        <v>-98.215999999999994</v>
+      </c>
+      <c r="AA49">
+        <v>-38.923999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-65.765000000000001</v>
+      </c>
+      <c r="D50">
+        <v>1444.6079999999999</v>
+      </c>
+      <c r="E50">
+        <v>1922.126</v>
+      </c>
+      <c r="F50">
+        <v>1088.6849999999999</v>
+      </c>
+      <c r="G50">
+        <v>3514.5439999999999</v>
+      </c>
+      <c r="H50">
+        <v>10665.127</v>
+      </c>
+      <c r="I50">
+        <v>95.537000000000006</v>
+      </c>
+      <c r="J50">
+        <v>1370.692</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4390.1030000000001</v>
+      </c>
+      <c r="O50">
+        <v>6689.9440000000004</v>
+      </c>
+      <c r="P50">
+        <v>1495.981</v>
+      </c>
+      <c r="Q50">
+        <v>61.792000000000002</v>
+      </c>
+      <c r="R50">
+        <v>42035</v>
+      </c>
+      <c r="S50">
+        <v>16000</v>
+      </c>
+      <c r="T50">
+        <v>3975.183</v>
+      </c>
+      <c r="U50">
+        <v>908.11699999999996</v>
+      </c>
+      <c r="V50">
+        <v>332.22300000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-104.30500000000001</v>
+      </c>
+      <c r="Y50">
+        <v>125.289</v>
+      </c>
+      <c r="Z50">
+        <v>-48.393999999999998</v>
+      </c>
+      <c r="AA50">
+        <v>-65.765000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>4.0919999999999996</v>
+      </c>
+      <c r="D51">
+        <v>1511.1669999999999</v>
+      </c>
+      <c r="E51">
+        <v>936.87300000000005</v>
+      </c>
+      <c r="F51">
+        <v>1129.365</v>
+      </c>
+      <c r="G51">
+        <v>2604.8249999999998</v>
+      </c>
+      <c r="H51">
+        <v>10365.682000000001</v>
+      </c>
+      <c r="I51">
+        <v>60.226999999999997</v>
+      </c>
+      <c r="J51">
+        <v>1275.5029999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-316.82499999999999</v>
+      </c>
+      <c r="N51">
+        <v>3960.8760000000002</v>
+      </c>
+      <c r="O51">
+        <v>6130.4790000000003</v>
+      </c>
+      <c r="P51">
+        <v>1973.829</v>
+      </c>
+      <c r="Q51">
+        <v>33.838999999999999</v>
+      </c>
+      <c r="R51">
+        <v>42124</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4235.2030000000004</v>
+      </c>
+      <c r="U51">
+        <v>941.95600000000002</v>
+      </c>
+      <c r="V51">
+        <v>735.08100000000002</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-161.81</v>
+      </c>
+      <c r="Y51">
+        <v>698.32600000000002</v>
+      </c>
+      <c r="Z51">
+        <v>-145.05699999999999</v>
+      </c>
+      <c r="AA51">
+        <v>4.0919999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-0.85199999999999998</v>
+      </c>
+      <c r="D52">
+        <v>1634.684</v>
+      </c>
+      <c r="E52">
+        <v>1073.971</v>
+      </c>
+      <c r="F52">
+        <v>1229.3</v>
+      </c>
+      <c r="G52">
+        <v>2916.7869999999998</v>
+      </c>
+      <c r="H52">
+        <v>10793.977000000001</v>
+      </c>
+      <c r="I52">
+        <v>99.286000000000001</v>
+      </c>
+      <c r="J52">
+        <v>1281.6120000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-41.073999999999998</v>
+      </c>
+      <c r="N52">
+        <v>4112.9939999999997</v>
+      </c>
+      <c r="O52">
+        <v>6258.174</v>
+      </c>
+      <c r="P52">
+        <v>1962.3150000000001</v>
+      </c>
+      <c r="Q52">
+        <v>147.39500000000001</v>
+      </c>
+      <c r="R52">
+        <v>42216</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4535.8029999999999</v>
+      </c>
+      <c r="U52">
+        <v>1089.3510000000001</v>
+      </c>
+      <c r="V52">
+        <v>304.27800000000002</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>73.724999999999994</v>
+      </c>
+      <c r="Y52">
+        <v>645.86500000000001</v>
+      </c>
+      <c r="Z52">
+        <v>-153.875</v>
+      </c>
+      <c r="AA52">
+        <v>-0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-25.157</v>
+      </c>
+      <c r="D53">
+        <v>1711.9670000000001</v>
+      </c>
+      <c r="E53">
+        <v>1064.298</v>
+      </c>
+      <c r="F53">
+        <v>1288.2840000000001</v>
+      </c>
+      <c r="G53">
+        <v>2938.7730000000001</v>
+      </c>
+      <c r="H53">
+        <v>10911.966</v>
+      </c>
+      <c r="I53">
+        <v>88.754999999999995</v>
+      </c>
+      <c r="J53">
+        <v>1287.761</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-10.945</v>
+      </c>
+      <c r="N53">
+        <v>3976.9780000000001</v>
+      </c>
+      <c r="O53">
+        <v>6162.0119999999997</v>
+      </c>
+      <c r="P53">
+        <v>2001.9010000000001</v>
+      </c>
+      <c r="Q53">
+        <v>133.96700000000001</v>
+      </c>
+      <c r="R53">
+        <v>42308</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4749.9539999999997</v>
+      </c>
+      <c r="U53">
+        <v>1223.318</v>
+      </c>
+      <c r="V53">
+        <v>162.51400000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>87.070999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>685.77300000000002</v>
+      </c>
+      <c r="Z53">
+        <v>-132.012</v>
+      </c>
+      <c r="AA53">
+        <v>-25.157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-25.509</v>
+      </c>
+      <c r="D54">
+        <v>1809.3979999999999</v>
+      </c>
+      <c r="E54">
+        <v>2496.165</v>
+      </c>
+      <c r="F54">
+        <v>1365.7190000000001</v>
+      </c>
+      <c r="G54">
+        <v>5731.3230000000003</v>
+      </c>
+      <c r="H54">
+        <v>12762.92</v>
+      </c>
+      <c r="I54">
+        <v>71.480999999999995</v>
+      </c>
+      <c r="J54">
+        <v>1286.095</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>5617.0050000000001</v>
+      </c>
+      <c r="O54">
+        <v>7760.0510000000004</v>
+      </c>
+      <c r="P54">
+        <v>2048.5659999999998</v>
+      </c>
+      <c r="Q54">
+        <v>-64.954999999999998</v>
+      </c>
+      <c r="R54">
+        <v>42400</v>
+      </c>
+      <c r="S54">
+        <v>19000</v>
+      </c>
+      <c r="T54">
+        <v>5002.8689999999997</v>
+      </c>
+      <c r="U54">
+        <v>1158.3630000000001</v>
+      </c>
+      <c r="V54">
+        <v>470.20800000000003</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>74.165999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>747.06899999999996</v>
+      </c>
+      <c r="Z54">
+        <v>-536.76700000000005</v>
+      </c>
+      <c r="AA54">
+        <v>-25.509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>38.759</v>
+      </c>
+      <c r="D55">
+        <v>1916.6030000000001</v>
+      </c>
+      <c r="E55">
+        <v>1192.9649999999999</v>
+      </c>
+      <c r="F55">
+        <v>1419.6220000000001</v>
+      </c>
+      <c r="G55">
+        <v>3774.672</v>
+      </c>
+      <c r="H55">
+        <v>12817.27</v>
+      </c>
+      <c r="I55">
+        <v>54.582999999999998</v>
+      </c>
+      <c r="J55">
+        <v>1293.17</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-49.968000000000004</v>
+      </c>
+      <c r="N55">
+        <v>5085.1030000000001</v>
+      </c>
+      <c r="O55">
+        <v>7233.0060000000003</v>
+      </c>
+      <c r="P55">
+        <v>2065.4549999999999</v>
+      </c>
+      <c r="Q55">
+        <v>640.72</v>
+      </c>
+      <c r="R55">
+        <v>42490</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>5584.2640000000001</v>
+      </c>
+      <c r="U55">
+        <v>1799.0830000000001</v>
+      </c>
+      <c r="V55">
+        <v>1051.0619999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>39.173000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>754.14599999999996</v>
+      </c>
+      <c r="Z55">
+        <v>-365.178</v>
+      </c>
+      <c r="AA55">
+        <v>38.759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>229.62200000000001</v>
+      </c>
+      <c r="D56">
+        <v>2036.6179999999999</v>
+      </c>
+      <c r="E56">
+        <v>1548.1179999999999</v>
+      </c>
+      <c r="F56">
+        <v>1511.039</v>
+      </c>
+      <c r="G56">
+        <v>3277.9989999999998</v>
+      </c>
+      <c r="H56">
+        <v>14381.314</v>
+      </c>
+      <c r="I56">
+        <v>101.404</v>
+      </c>
+      <c r="J56">
+        <v>1796.9290000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-12.795</v>
+      </c>
+      <c r="N56">
+        <v>5376.0959999999995</v>
+      </c>
+      <c r="O56">
+        <v>8248.7379999999994</v>
+      </c>
+      <c r="P56">
+        <v>2515.011</v>
+      </c>
+      <c r="Q56">
+        <v>-683.85699999999997</v>
+      </c>
+      <c r="R56">
+        <v>42582</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6132.576</v>
+      </c>
+      <c r="U56">
+        <v>1115.2260000000001</v>
+      </c>
+      <c r="V56">
+        <v>250.678</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>616.63300000000004</v>
+      </c>
+      <c r="Y56">
+        <v>698.69100000000003</v>
+      </c>
+      <c r="Z56">
+        <v>1351.7919999999999</v>
+      </c>
+      <c r="AA56">
+        <v>229.62200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-37.308999999999997</v>
+      </c>
+      <c r="D57">
+        <v>2144.7750000000001</v>
+      </c>
+      <c r="E57">
+        <v>1281.425</v>
+      </c>
+      <c r="F57">
+        <v>1559.2529999999999</v>
+      </c>
+      <c r="G57">
+        <v>3001.5540000000001</v>
+      </c>
+      <c r="H57">
+        <v>14387.669</v>
+      </c>
+      <c r="I57">
+        <v>140.541</v>
+      </c>
+      <c r="J57">
+        <v>1804.3710000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-10.997</v>
+      </c>
+      <c r="N57">
+        <v>4975.5339999999997</v>
+      </c>
+      <c r="O57">
+        <v>7581.6319999999996</v>
+      </c>
+      <c r="P57">
+        <v>2515.6959999999999</v>
+      </c>
+      <c r="Q57">
+        <v>30.51</v>
+      </c>
+      <c r="R57">
+        <v>42674</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>6806.0370000000003</v>
+      </c>
+      <c r="U57">
+        <v>1145.7360000000001</v>
+      </c>
+      <c r="V57">
+        <v>154.31200000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>81.849000000000004</v>
+      </c>
+      <c r="Y57">
+        <v>691.83299999999997</v>
+      </c>
+      <c r="Z57">
+        <v>-21.013999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>-37.308999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-51.44</v>
+      </c>
+      <c r="D58">
+        <v>2293.9879999999998</v>
+      </c>
+      <c r="E58">
+        <v>3196.643</v>
+      </c>
+      <c r="F58">
+        <v>1668.0309999999999</v>
+      </c>
+      <c r="G58">
+        <v>5996.8270000000002</v>
+      </c>
+      <c r="H58">
+        <v>17584.922999999999</v>
+      </c>
+      <c r="I58">
+        <v>115.25700000000001</v>
+      </c>
+      <c r="J58">
+        <v>2008.3910000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>7295.4660000000003</v>
+      </c>
+      <c r="O58">
+        <v>10084.796</v>
+      </c>
+      <c r="P58">
+        <v>2792.058</v>
+      </c>
+      <c r="Q58">
+        <v>460.81299999999999</v>
+      </c>
+      <c r="R58">
+        <v>42766</v>
+      </c>
+      <c r="S58">
+        <v>25000</v>
+      </c>
+      <c r="T58">
+        <v>7500.1270000000004</v>
+      </c>
+      <c r="U58">
+        <v>1606.549</v>
+      </c>
+      <c r="V58">
+        <v>706.14599999999996</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>260.04300000000001</v>
+      </c>
+      <c r="Y58">
+        <v>681.56100000000004</v>
+      </c>
+      <c r="Z58">
+        <v>6.7560000000000002</v>
+      </c>
+      <c r="AA58">
+        <v>-51.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2397</v>
+      </c>
+      <c r="E59">
+        <v>1439.875</v>
+      </c>
+      <c r="F59">
+        <v>1746</v>
+      </c>
+      <c r="G59">
+        <v>5404.491</v>
+      </c>
+      <c r="H59">
+        <v>17058.93</v>
+      </c>
+      <c r="I59">
+        <v>128.065</v>
+      </c>
+      <c r="J59">
+        <v>695.84500000000003</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-209</v>
+      </c>
+      <c r="N59">
+        <v>7625.8630000000003</v>
+      </c>
+      <c r="O59">
+        <v>9124.4419999999991</v>
+      </c>
+      <c r="P59">
+        <v>2535.4960000000001</v>
+      </c>
+      <c r="Q59">
+        <v>418</v>
+      </c>
+      <c r="R59">
+        <v>42855</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7934.4880000000003</v>
+      </c>
+      <c r="U59">
+        <v>2024.904</v>
+      </c>
+      <c r="V59">
+        <v>1230</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-49</v>
+      </c>
+      <c r="Y59">
+        <v>696.43100000000004</v>
+      </c>
+      <c r="Z59">
+        <v>-591</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>2577</v>
+      </c>
+      <c r="E60">
+        <v>1569.3219999999999</v>
+      </c>
+      <c r="F60">
+        <v>1907</v>
+      </c>
+      <c r="G60">
+        <v>5811.3410000000003</v>
+      </c>
+      <c r="H60">
+        <v>17418.803</v>
+      </c>
+      <c r="I60">
+        <v>148.279</v>
+      </c>
+      <c r="J60">
+        <v>696.19899999999996</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-66</v>
+      </c>
+      <c r="N60">
+        <v>7526.1850000000004</v>
+      </c>
+      <c r="O60">
+        <v>8967.4889999999996</v>
+      </c>
+      <c r="P60">
+        <v>2582.0909999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-76</v>
+      </c>
+      <c r="R60">
+        <v>42947</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>8451.3140000000003</v>
+      </c>
+      <c r="U60">
+        <v>1949.11</v>
+      </c>
+      <c r="V60">
+        <v>331</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>117</v>
+      </c>
+      <c r="Y60">
+        <v>616.47799999999995</v>
+      </c>
+      <c r="Z60">
+        <v>-396</v>
+      </c>
+      <c r="AA60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>107</v>
+      </c>
+      <c r="D61">
+        <v>2701</v>
+      </c>
+      <c r="E61">
+        <v>1519.9159999999999</v>
+      </c>
+      <c r="F61">
+        <v>1987</v>
+      </c>
+      <c r="G61">
+        <v>5946.17</v>
+      </c>
+      <c r="H61">
+        <v>17490.036</v>
+      </c>
+      <c r="I61">
+        <v>120.01900000000001</v>
+      </c>
+      <c r="J61">
+        <v>696.55499999999995</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-8</v>
+      </c>
+      <c r="N61">
+        <v>7216.4440000000004</v>
+      </c>
+      <c r="O61">
+        <v>8660.6659999999993</v>
+      </c>
+      <c r="P61">
+        <v>2588.232</v>
+      </c>
+      <c r="Q61">
+        <v>123</v>
+      </c>
+      <c r="R61">
+        <v>43039</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>8829.3700000000008</v>
+      </c>
+      <c r="U61">
+        <v>2071.837</v>
+      </c>
+      <c r="V61">
+        <v>125</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>134</v>
+      </c>
+      <c r="Y61">
+        <v>619.67700000000002</v>
+      </c>
+      <c r="Z61">
+        <v>-24</v>
+      </c>
+      <c r="AA61">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>206</v>
+      </c>
+      <c r="D62">
+        <v>2865</v>
+      </c>
+      <c r="E62">
+        <v>3921</v>
+      </c>
+      <c r="F62">
+        <v>2127</v>
+      </c>
+      <c r="G62">
+        <v>9584</v>
+      </c>
+      <c r="H62">
+        <v>21984</v>
+      </c>
+      <c r="I62">
+        <v>76</v>
+      </c>
+      <c r="J62">
+        <v>695</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>10067</v>
+      </c>
+      <c r="O62">
+        <v>11608</v>
+      </c>
+      <c r="P62">
+        <v>1720</v>
+      </c>
+      <c r="Q62">
+        <v>471</v>
+      </c>
+      <c r="R62">
+        <v>43131</v>
+      </c>
+      <c r="S62">
+        <v>29000</v>
+      </c>
+      <c r="T62">
+        <v>10376</v>
+      </c>
+      <c r="U62">
+        <v>2543</v>
+      </c>
+      <c r="V62">
+        <v>1052</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>19</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-441</v>
+      </c>
+      <c r="AA62">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>344</v>
+      </c>
+      <c r="D63">
+        <v>3006</v>
+      </c>
+      <c r="E63">
+        <v>1763</v>
+      </c>
+      <c r="F63">
+        <v>2239</v>
+      </c>
+      <c r="G63">
+        <v>10151</v>
+      </c>
+      <c r="H63">
+        <v>22963</v>
+      </c>
+      <c r="I63">
+        <v>134</v>
+      </c>
+      <c r="J63">
+        <v>3172</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1046</v>
+      </c>
+      <c r="N63">
+        <v>7895</v>
+      </c>
+      <c r="O63">
+        <v>11903</v>
+      </c>
+      <c r="P63">
+        <v>3988</v>
+      </c>
+      <c r="Q63">
+        <v>3379</v>
+      </c>
+      <c r="R63">
+        <v>43220</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>11060</v>
+      </c>
+      <c r="U63">
+        <v>5922</v>
+      </c>
+      <c r="V63">
+        <v>1466</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1625</v>
+      </c>
+      <c r="Y63">
+        <v>713</v>
+      </c>
+      <c r="Z63">
+        <v>580</v>
+      </c>
+      <c r="AA63">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>299</v>
+      </c>
+      <c r="D64">
+        <v>3281</v>
+      </c>
+      <c r="E64">
+        <v>1980</v>
+      </c>
+      <c r="F64">
+        <v>2432</v>
+      </c>
+      <c r="G64">
+        <v>6802</v>
+      </c>
+      <c r="H64">
+        <v>25823</v>
+      </c>
+      <c r="I64">
+        <v>201</v>
+      </c>
+      <c r="J64">
+        <v>3173</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-89</v>
+      </c>
+      <c r="N64">
+        <v>8469</v>
+      </c>
+      <c r="O64">
+        <v>12295</v>
+      </c>
+      <c r="P64">
+        <v>4398</v>
+      </c>
+      <c r="Q64">
+        <v>-3603</v>
+      </c>
+      <c r="R64">
+        <v>43312</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>13528</v>
+      </c>
+      <c r="U64">
+        <v>2319</v>
+      </c>
+      <c r="V64">
+        <v>458</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>589</v>
+      </c>
+      <c r="Y64">
+        <v>517</v>
+      </c>
+      <c r="Z64">
+        <v>312</v>
+      </c>
+      <c r="AA64">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>105</v>
+      </c>
+      <c r="D65">
+        <v>3392</v>
+      </c>
+      <c r="E65">
+        <v>2037</v>
+      </c>
+      <c r="F65">
+        <v>2503</v>
+      </c>
+      <c r="G65">
+        <v>6870</v>
+      </c>
+      <c r="H65">
+        <v>26588</v>
+      </c>
+      <c r="I65">
+        <v>160</v>
+      </c>
+      <c r="J65">
+        <v>3173</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-3</v>
+      </c>
+      <c r="N65">
+        <v>8022</v>
+      </c>
+      <c r="O65">
+        <v>11895</v>
+      </c>
+      <c r="P65">
+        <v>4391</v>
+      </c>
+      <c r="Q65">
+        <v>-214</v>
+      </c>
+      <c r="R65">
+        <v>43404</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>14693</v>
+      </c>
+      <c r="U65">
+        <v>2105</v>
+      </c>
+      <c r="V65">
+        <v>143</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>182</v>
+      </c>
+      <c r="Y65">
+        <v>512</v>
+      </c>
+      <c r="Z65">
+        <v>-279</v>
+      </c>
+      <c r="AA65">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>362</v>
+      </c>
+      <c r="D66">
+        <v>3603</v>
+      </c>
+      <c r="E66">
+        <v>5139</v>
+      </c>
+      <c r="F66">
+        <v>2657</v>
+      </c>
+      <c r="G66">
+        <v>10683</v>
+      </c>
+      <c r="H66">
+        <v>30737</v>
+      </c>
+      <c r="I66">
+        <v>2461</v>
+      </c>
+      <c r="J66">
+        <v>3173</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>11255</v>
+      </c>
+      <c r="O66">
+        <v>15132</v>
+      </c>
+      <c r="P66">
+        <v>3579</v>
+      </c>
+      <c r="Q66">
+        <v>564</v>
+      </c>
+      <c r="R66">
+        <v>43496</v>
+      </c>
+      <c r="S66">
+        <v>35000</v>
+      </c>
+      <c r="T66">
+        <v>15605</v>
+      </c>
+      <c r="U66">
+        <v>2669</v>
+      </c>
+      <c r="V66">
+        <v>1331</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-386</v>
+      </c>
+      <c r="Y66">
+        <v>193</v>
+      </c>
+      <c r="Z66">
+        <v>-211</v>
+      </c>
+      <c r="AA66">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>392</v>
+      </c>
+      <c r="D67">
+        <v>3737</v>
+      </c>
+      <c r="E67">
+        <v>2413</v>
+      </c>
+      <c r="F67">
+        <v>2823</v>
+      </c>
+      <c r="G67">
+        <v>10035</v>
+      </c>
+      <c r="H67">
+        <v>33154</v>
+      </c>
+      <c r="I67">
+        <v>2050</v>
+      </c>
+      <c r="J67">
+        <v>3173</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-12</v>
+      </c>
+      <c r="N67">
+        <v>10488</v>
+      </c>
+      <c r="O67">
+        <v>16708</v>
+      </c>
+      <c r="P67">
+        <v>6768</v>
+      </c>
+      <c r="Q67">
+        <v>1441</v>
+      </c>
+      <c r="R67">
+        <v>43585</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>16446</v>
+      </c>
+      <c r="U67">
+        <v>4110</v>
+      </c>
+      <c r="V67">
+        <v>1965</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>207</v>
+      </c>
+      <c r="Y67">
+        <v>2742</v>
+      </c>
+      <c r="Z67">
+        <v>-557</v>
+      </c>
+      <c r="AA67">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>91</v>
+      </c>
+      <c r="D68">
+        <v>3997</v>
+      </c>
+      <c r="E68">
+        <v>2600</v>
+      </c>
+      <c r="F68">
+        <v>3030</v>
+      </c>
+      <c r="G68">
+        <v>9903</v>
+      </c>
+      <c r="H68">
+        <v>33336</v>
+      </c>
+      <c r="I68">
+        <v>2271</v>
+      </c>
+      <c r="J68">
+        <v>2973</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-335</v>
+      </c>
+      <c r="N68">
+        <v>10195</v>
+      </c>
+      <c r="O68">
+        <v>16170</v>
+      </c>
+      <c r="P68">
+        <v>6432</v>
+      </c>
+      <c r="Q68">
+        <v>-600</v>
+      </c>
+      <c r="R68">
+        <v>43677</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>17166</v>
+      </c>
+      <c r="U68">
+        <v>3510</v>
+      </c>
+      <c r="V68">
+        <v>436</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-183</v>
+      </c>
+      <c r="Y68">
+        <v>2677</v>
+      </c>
+      <c r="Z68">
+        <v>-251</v>
+      </c>
+      <c r="AA68">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-109</v>
+      </c>
+      <c r="D69">
+        <v>4513</v>
+      </c>
+      <c r="E69">
+        <v>3034</v>
+      </c>
+      <c r="F69">
+        <v>3379</v>
+      </c>
+      <c r="G69">
+        <v>11026</v>
+      </c>
+      <c r="H69">
+        <v>49942</v>
+      </c>
+      <c r="I69">
+        <v>2763</v>
+      </c>
+      <c r="J69">
+        <v>2824</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-164</v>
+      </c>
+      <c r="N69">
+        <v>10474</v>
+      </c>
+      <c r="O69">
+        <v>16663</v>
+      </c>
+      <c r="P69">
+        <v>6493</v>
+      </c>
+      <c r="Q69">
+        <v>358</v>
+      </c>
+      <c r="R69">
+        <v>43769</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>33279</v>
+      </c>
+      <c r="U69">
+        <v>3868</v>
+      </c>
+      <c r="V69">
+        <v>298</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>15</v>
+      </c>
+      <c r="Y69">
+        <v>2869</v>
+      </c>
+      <c r="Z69">
+        <v>139</v>
+      </c>
+      <c r="AA69">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-248</v>
+      </c>
+      <c r="D70">
+        <v>4851</v>
+      </c>
+      <c r="E70">
+        <v>6623</v>
+      </c>
+      <c r="F70">
+        <v>3631</v>
+      </c>
+      <c r="G70">
+        <v>15963</v>
+      </c>
+      <c r="H70">
+        <v>55126</v>
+      </c>
+      <c r="I70">
+        <v>1876</v>
+      </c>
+      <c r="J70">
+        <v>2673</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>14845</v>
+      </c>
+      <c r="O70">
+        <v>21241</v>
+      </c>
+      <c r="P70">
+        <v>6257</v>
+      </c>
+      <c r="Q70">
+        <v>277</v>
+      </c>
+      <c r="R70">
+        <v>43861</v>
+      </c>
+      <c r="S70">
+        <v>49000</v>
+      </c>
+      <c r="T70">
+        <v>33885</v>
+      </c>
+      <c r="U70">
+        <v>4145</v>
+      </c>
+      <c r="V70">
+        <v>1632</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>125</v>
+      </c>
+      <c r="Y70">
+        <v>2777</v>
+      </c>
+      <c r="Z70">
+        <v>-1299</v>
+      </c>
+      <c r="AA70">
+        <v>-248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>99</v>
+      </c>
+      <c r="D71">
+        <v>4865</v>
+      </c>
+      <c r="E71">
+        <v>3530</v>
+      </c>
+      <c r="F71">
+        <v>3611</v>
+      </c>
+      <c r="G71">
+        <v>14713</v>
+      </c>
+      <c r="H71">
+        <v>53623</v>
+      </c>
+      <c r="I71">
+        <v>1963</v>
+      </c>
+      <c r="J71">
+        <v>2673</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-49</v>
+      </c>
+      <c r="N71">
+        <v>12843</v>
+      </c>
+      <c r="O71">
+        <v>19058</v>
+      </c>
+      <c r="P71">
+        <v>6212</v>
+      </c>
+      <c r="Q71">
+        <v>1627</v>
+      </c>
+      <c r="R71">
+        <v>43951</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>34565</v>
+      </c>
+      <c r="U71">
+        <v>5772</v>
+      </c>
+      <c r="V71">
+        <v>1859</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>209</v>
+      </c>
+      <c r="Y71">
+        <v>2744</v>
+      </c>
+      <c r="Z71">
+        <v>-11</v>
+      </c>
+      <c r="AA71">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>2625</v>
+      </c>
+      <c r="D72">
+        <v>5151</v>
+      </c>
+      <c r="E72">
+        <v>3953</v>
+      </c>
+      <c r="F72">
+        <v>3840</v>
+      </c>
+      <c r="G72">
+        <v>14846</v>
+      </c>
+      <c r="H72">
+        <v>57780</v>
+      </c>
+      <c r="I72">
+        <v>2077</v>
+      </c>
+      <c r="J72">
+        <v>2673</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-25</v>
+      </c>
+      <c r="N72">
+        <v>12963</v>
+      </c>
+      <c r="O72">
+        <v>19340</v>
+      </c>
+      <c r="P72">
+        <v>6188</v>
+      </c>
+      <c r="Q72">
+        <v>-1720</v>
+      </c>
+      <c r="R72">
+        <v>44043</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>38440</v>
+      </c>
+      <c r="U72">
+        <v>4052</v>
+      </c>
+      <c r="V72">
+        <v>429</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>441</v>
+      </c>
+      <c r="Y72">
+        <v>2734</v>
+      </c>
+      <c r="Z72">
+        <v>-1325</v>
+      </c>
+      <c r="AA72">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1081</v>
+      </c>
+      <c r="D73">
+        <v>5419</v>
+      </c>
+      <c r="E73">
+        <v>3890</v>
+      </c>
+      <c r="F73">
+        <v>4025</v>
+      </c>
+      <c r="G73">
+        <v>14946</v>
+      </c>
+      <c r="H73">
+        <v>59136</v>
+      </c>
+      <c r="I73">
+        <v>1893</v>
+      </c>
+      <c r="J73">
+        <v>2672</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-13</v>
+      </c>
+      <c r="N73">
+        <v>12234</v>
+      </c>
+      <c r="O73">
+        <v>18826</v>
+      </c>
+      <c r="P73">
+        <v>6223</v>
+      </c>
+      <c r="Q73">
+        <v>-328</v>
+      </c>
+      <c r="R73">
+        <v>44135</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>40310</v>
+      </c>
+      <c r="U73">
+        <v>3724</v>
+      </c>
+      <c r="V73">
+        <v>339</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>368</v>
+      </c>
+      <c r="Y73">
+        <v>2774</v>
+      </c>
+      <c r="Z73">
+        <v>-887</v>
+      </c>
+      <c r="AA73">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
         <v>267</v>
       </c>
-      <c r="D42">
+      <c r="D74">
         <v>5817</v>
       </c>
-      <c r="E42">
-        <v>7786</v>
-      </c>
-      <c r="F42">
+      <c r="E74">
+        <v>8263</v>
+      </c>
+      <c r="F74">
         <v>4338</v>
       </c>
-      <c r="G42">
+      <c r="G74">
         <v>21889</v>
       </c>
-      <c r="H42">
+      <c r="H74">
         <v>66301</v>
       </c>
-      <c r="I42">
-        <v>4351</v>
-      </c>
-      <c r="J42">
+      <c r="I74">
+        <v>2616</v>
+      </c>
+      <c r="J74">
         <v>2673</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>-40</v>
-      </c>
-      <c r="N42">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
         <v>17728</v>
       </c>
-      <c r="O42">
+      <c r="O74">
         <v>24808</v>
       </c>
-      <c r="P42">
-        <v>6285</v>
-      </c>
-      <c r="Q42">
+      <c r="P74">
+        <v>6413</v>
+      </c>
+      <c r="Q74">
         <v>2471</v>
       </c>
-      <c r="R42">
+      <c r="R74">
         <v>44227</v>
       </c>
-      <c r="S42">
+      <c r="S74">
         <v>56606</v>
       </c>
-      <c r="T42">
+      <c r="T74">
         <v>41493</v>
       </c>
-      <c r="U42">
+      <c r="U74">
         <v>6195</v>
       </c>
-      <c r="V42">
+      <c r="V74">
         <v>2174</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
         <v>176</v>
       </c>
-      <c r="Y42">
-        <v>2842</v>
-      </c>
-      <c r="Z42">
+      <c r="Y74">
+        <v>2935</v>
+      </c>
+      <c r="Z74">
         <v>243</v>
       </c>
-      <c r="AA42">
+      <c r="AA74">
         <v>267</v>
       </c>
     </row>
